--- a/Matt_Work/BiGG ID Additions/2015_06_11_rxns.xlsx
+++ b/Matt_Work/BiGG ID Additions/2015_06_11_rxns.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="2047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="2049">
   <si>
     <t>rxn02483_c0</t>
   </si>
@@ -6158,6 +6158,12 @@
   </si>
   <si>
     <t>Glycogen Metabolism</t>
+  </si>
+  <si>
+    <t>Thioredoxin-disulfide Reductase; Pyrimidine Conversions</t>
+  </si>
+  <si>
+    <t>Sucrose Metabolism</t>
   </si>
 </sst>
 </file>
@@ -6214,14 +6220,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -6564,8 +6563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E667"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B651" sqref="B651"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="B313" sqref="B313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10822,6 +10821,9 @@
       <c r="A304" t="s">
         <v>865</v>
       </c>
+      <c r="B304" t="s">
+        <v>2047</v>
+      </c>
       <c r="D304" t="s">
         <v>867</v>
       </c>
@@ -10833,6 +10835,9 @@
       <c r="A305" t="s">
         <v>868</v>
       </c>
+      <c r="B305" s="1" t="s">
+        <v>1980</v>
+      </c>
       <c r="D305" t="s">
         <v>870</v>
       </c>
@@ -10844,6 +10849,9 @@
       <c r="A306" t="s">
         <v>871</v>
       </c>
+      <c r="B306" t="s">
+        <v>1982</v>
+      </c>
       <c r="D306" t="s">
         <v>873</v>
       </c>
@@ -10855,6 +10863,9 @@
       <c r="A307" t="s">
         <v>874</v>
       </c>
+      <c r="B307" t="s">
+        <v>1993</v>
+      </c>
       <c r="D307" t="s">
         <v>876</v>
       </c>
@@ -10866,6 +10877,9 @@
       <c r="A308" t="s">
         <v>877</v>
       </c>
+      <c r="B308" s="1" t="s">
+        <v>1974</v>
+      </c>
       <c r="D308" t="s">
         <v>878</v>
       </c>
@@ -10891,6 +10905,9 @@
       <c r="A310" t="s">
         <v>881</v>
       </c>
+      <c r="B310" t="s">
+        <v>2048</v>
+      </c>
       <c r="D310" t="s">
         <v>883</v>
       </c>
@@ -10902,6 +10919,9 @@
       <c r="A311" t="s">
         <v>884</v>
       </c>
+      <c r="B311" t="s">
+        <v>2031</v>
+      </c>
       <c r="D311" t="s">
         <v>885</v>
       </c>
@@ -10913,6 +10933,9 @@
       <c r="A312" t="s">
         <v>886</v>
       </c>
+      <c r="B312" t="s">
+        <v>1990</v>
+      </c>
       <c r="D312" t="s">
         <v>888</v>
       </c>
@@ -15268,7 +15291,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B667">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Matt_Work/BiGG ID Additions/2015_06_11_rxns.xlsx
+++ b/Matt_Work/BiGG ID Additions/2015_06_11_rxns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="7944" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="150" windowWidth="14340" windowHeight="7890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="2049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="2083">
   <si>
     <t>rxn02483_c0</t>
   </si>
@@ -6164,6 +6164,108 @@
   </si>
   <si>
     <t>Sucrose Metabolism</t>
+  </si>
+  <si>
+    <t>Peptide Methionine Sufoxide Reductase</t>
+  </si>
+  <si>
+    <t>Glycine and Serine Utilization</t>
+  </si>
+  <si>
+    <t>Lysine Biosynthesis; Threonine and Homoserine Biosynthesis</t>
+  </si>
+  <si>
+    <t>Isoprenoid Biosynthesis</t>
+  </si>
+  <si>
+    <t>Mannose Metabolism</t>
+  </si>
+  <si>
+    <t>Glycolysis</t>
+  </si>
+  <si>
+    <t>Arginine and Ornithine Degradation</t>
+  </si>
+  <si>
+    <t>Menaquinone and Phylloquinone Biosynthesis</t>
+  </si>
+  <si>
+    <t>Anaerobic Respiratory Reductases</t>
+  </si>
+  <si>
+    <t>Formate Hydrogenase</t>
+  </si>
+  <si>
+    <t>Cysteine Biosynthesis</t>
+  </si>
+  <si>
+    <t>Polyprenyl Diphosphate Biosynthesis</t>
+  </si>
+  <si>
+    <t>Sulfate Assimilation</t>
+  </si>
+  <si>
+    <t>Sulfur Assimilation</t>
+  </si>
+  <si>
+    <t>Fatty Acid Biosynthesis</t>
+  </si>
+  <si>
+    <t>Triacylglycerol Metabolism</t>
+  </si>
+  <si>
+    <t>Coenzyme B12 Biosynthesis; Heme and Siroheme Biosynthesis</t>
+  </si>
+  <si>
+    <t>KDO2-Lipid A Biosynthesis</t>
+  </si>
+  <si>
+    <t>Tryptophan Catabolism; Pyruvate Metabolism II: Acetyl-CoA, Acetogenesis from Pyruvate</t>
+  </si>
+  <si>
+    <t>Pyruvate Metabolism II: Acetyl-CoA, Acetogenesis from Pyruvate</t>
+  </si>
+  <si>
+    <t>Glutathione Biosynthesis</t>
+  </si>
+  <si>
+    <t>Pyruvate Metabolism I: Anaplerotic Reactions, PEP</t>
+  </si>
+  <si>
+    <t>Threonine Degradation; Arginine and Ornithine Degradation</t>
+  </si>
+  <si>
+    <t>Threonine Degradation; Glycine Biosynthesis</t>
+  </si>
+  <si>
+    <t>LOS core oligosaccharide biosynthesis</t>
+  </si>
+  <si>
+    <t>Polyamine Metabolism; Arginine and Ornithine Degradation</t>
+  </si>
+  <si>
+    <t>Glutathione: Redox Cycle</t>
+  </si>
+  <si>
+    <t>LOS Core Oligosaccharide Biosynthesis</t>
+  </si>
+  <si>
+    <t>Inorganic Sulfur Assimilation</t>
+  </si>
+  <si>
+    <t>Glycine and Serine Utilization; Threonine Degradation; Glycine Biosynthesis</t>
+  </si>
+  <si>
+    <t>Succinate Dehydrogenase</t>
+  </si>
+  <si>
+    <t>CO2 Uptake, Carboxysome</t>
+  </si>
+  <si>
+    <t>Glycine and Serine Utilization; Serine Biosynthesis; Pyridoxin Biosynthesis</t>
+  </si>
+  <si>
+    <t>Chorismate Synthesis; Phenylalanine Synthesis</t>
   </si>
 </sst>
 </file>
@@ -6220,7 +6322,252 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6529,7 +6876,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6541,7 +6888,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6553,7 +6900,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6563,19 +6910,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E667"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="B313" sqref="B313"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="B351" sqref="B351"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1938</v>
       </c>
@@ -6592,7 +6939,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6606,7 +6953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6620,7 +6967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6634,7 +6981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -6648,7 +6995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -6662,7 +7009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -6676,7 +7023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -6690,7 +7037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -6704,7 +7051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -6718,7 +7065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -6732,7 +7079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -6746,7 +7093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -6760,7 +7107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -6774,7 +7121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -6788,7 +7135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -6802,7 +7149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -6816,7 +7163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -6830,7 +7177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -6844,7 +7191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -6858,7 +7205,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -6872,7 +7219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -6886,7 +7233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -6900,7 +7247,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -6914,7 +7261,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -6928,7 +7275,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -6942,7 +7289,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -6956,7 +7303,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -6970,7 +7317,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -6984,7 +7331,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -6998,7 +7345,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -7012,7 +7359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -7026,7 +7373,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -7040,7 +7387,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -7054,7 +7401,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -7068,7 +7415,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -7082,7 +7429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -7096,7 +7443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -7110,7 +7457,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -7124,7 +7471,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -7138,7 +7485,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -7152,7 +7499,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -7166,7 +7513,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -7180,7 +7527,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>123</v>
       </c>
@@ -7194,7 +7541,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -7208,7 +7555,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -7222,7 +7569,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -7236,7 +7583,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -7250,7 +7597,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>138</v>
       </c>
@@ -7264,7 +7611,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -7278,7 +7625,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>144</v>
       </c>
@@ -7292,7 +7639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>146</v>
       </c>
@@ -7306,7 +7653,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>149</v>
       </c>
@@ -7320,7 +7667,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -7334,7 +7681,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>155</v>
       </c>
@@ -7348,7 +7695,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>158</v>
       </c>
@@ -7362,7 +7709,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -7376,7 +7723,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>164</v>
       </c>
@@ -7390,7 +7737,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>166</v>
       </c>
@@ -7404,7 +7751,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -7418,7 +7765,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>172</v>
       </c>
@@ -7432,7 +7779,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -7446,7 +7793,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>178</v>
       </c>
@@ -7460,7 +7807,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>181</v>
       </c>
@@ -7474,7 +7821,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>184</v>
       </c>
@@ -7488,7 +7835,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>185</v>
       </c>
@@ -7502,7 +7849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -7516,7 +7863,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -7530,7 +7877,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -7544,7 +7891,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>195</v>
       </c>
@@ -7558,7 +7905,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>198</v>
       </c>
@@ -7572,7 +7919,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>201</v>
       </c>
@@ -7586,7 +7933,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>204</v>
       </c>
@@ -7600,7 +7947,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -7614,7 +7961,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>209</v>
       </c>
@@ -7628,7 +7975,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>212</v>
       </c>
@@ -7642,7 +7989,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>215</v>
       </c>
@@ -7656,7 +8003,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>218</v>
       </c>
@@ -7670,7 +8017,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>221</v>
       </c>
@@ -7684,7 +8031,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -7698,7 +8045,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>227</v>
       </c>
@@ -7712,7 +8059,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>230</v>
       </c>
@@ -7726,7 +8073,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>233</v>
       </c>
@@ -7740,7 +8087,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>236</v>
       </c>
@@ -7754,7 +8101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>238</v>
       </c>
@@ -7768,7 +8115,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>240</v>
       </c>
@@ -7782,7 +8129,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>242</v>
       </c>
@@ -7796,7 +8143,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>245</v>
       </c>
@@ -7810,7 +8157,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -7824,7 +8171,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>251</v>
       </c>
@@ -7838,7 +8185,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>254</v>
       </c>
@@ -7852,7 +8199,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>257</v>
       </c>
@@ -7866,7 +8213,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>260</v>
       </c>
@@ -7880,7 +8227,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>263</v>
       </c>
@@ -7894,7 +8241,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>266</v>
       </c>
@@ -7908,7 +8255,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>269</v>
       </c>
@@ -7922,7 +8269,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>272</v>
       </c>
@@ -7936,7 +8283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>274</v>
       </c>
@@ -7950,7 +8297,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>277</v>
       </c>
@@ -7964,7 +8311,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>280</v>
       </c>
@@ -7978,7 +8325,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>283</v>
       </c>
@@ -7992,7 +8339,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>286</v>
       </c>
@@ -8006,7 +8353,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>288</v>
       </c>
@@ -8020,7 +8367,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>291</v>
       </c>
@@ -8034,7 +8381,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>294</v>
       </c>
@@ -8048,7 +8395,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>297</v>
       </c>
@@ -8062,7 +8409,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>300</v>
       </c>
@@ -8076,7 +8423,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>303</v>
       </c>
@@ -8090,7 +8437,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>306</v>
       </c>
@@ -8104,7 +8451,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>309</v>
       </c>
@@ -8118,7 +8465,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>312</v>
       </c>
@@ -8132,7 +8479,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>315</v>
       </c>
@@ -8146,7 +8493,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>318</v>
       </c>
@@ -8160,7 +8507,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>320</v>
       </c>
@@ -8174,7 +8521,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>323</v>
       </c>
@@ -8188,7 +8535,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>325</v>
       </c>
@@ -8202,7 +8549,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>328</v>
       </c>
@@ -8216,7 +8563,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>331</v>
       </c>
@@ -8230,7 +8577,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>334</v>
       </c>
@@ -8244,7 +8591,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>337</v>
       </c>
@@ -8258,7 +8605,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>340</v>
       </c>
@@ -8272,7 +8619,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>343</v>
       </c>
@@ -8286,7 +8633,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>346</v>
       </c>
@@ -8300,7 +8647,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>348</v>
       </c>
@@ -8314,7 +8661,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>351</v>
       </c>
@@ -8328,7 +8675,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>354</v>
       </c>
@@ -8342,7 +8689,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>357</v>
       </c>
@@ -8356,7 +8703,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>360</v>
       </c>
@@ -8370,7 +8717,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>363</v>
       </c>
@@ -8384,7 +8731,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>366</v>
       </c>
@@ -8398,7 +8745,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>369</v>
       </c>
@@ -8412,7 +8759,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>372</v>
       </c>
@@ -8426,7 +8773,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>375</v>
       </c>
@@ -8440,7 +8787,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>378</v>
       </c>
@@ -8454,7 +8801,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>381</v>
       </c>
@@ -8468,7 +8815,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>384</v>
       </c>
@@ -8482,7 +8829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>386</v>
       </c>
@@ -8496,7 +8843,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>388</v>
       </c>
@@ -8510,7 +8857,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>391</v>
       </c>
@@ -8524,7 +8871,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>393</v>
       </c>
@@ -8538,7 +8885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>395</v>
       </c>
@@ -8552,7 +8899,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>398</v>
       </c>
@@ -8566,7 +8913,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>401</v>
       </c>
@@ -8580,7 +8927,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>404</v>
       </c>
@@ -8594,7 +8941,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>407</v>
       </c>
@@ -8608,7 +8955,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>410</v>
       </c>
@@ -8622,7 +8969,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>413</v>
       </c>
@@ -8636,7 +8983,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>416</v>
       </c>
@@ -8650,7 +8997,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>419</v>
       </c>
@@ -8664,7 +9011,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>422</v>
       </c>
@@ -8678,7 +9025,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>425</v>
       </c>
@@ -8692,7 +9039,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>428</v>
       </c>
@@ -8706,7 +9053,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>431</v>
       </c>
@@ -8720,7 +9067,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>434</v>
       </c>
@@ -8734,7 +9081,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>437</v>
       </c>
@@ -8748,7 +9095,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>440</v>
       </c>
@@ -8762,7 +9109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>442</v>
       </c>
@@ -8776,7 +9123,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>445</v>
       </c>
@@ -8790,7 +9137,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>448</v>
       </c>
@@ -8804,7 +9151,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>451</v>
       </c>
@@ -8818,7 +9165,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>454</v>
       </c>
@@ -8832,7 +9179,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>457</v>
       </c>
@@ -8846,7 +9193,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>459</v>
       </c>
@@ -8860,7 +9207,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>462</v>
       </c>
@@ -8874,7 +9221,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>465</v>
       </c>
@@ -8888,7 +9235,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>467</v>
       </c>
@@ -8902,7 +9249,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>470</v>
       </c>
@@ -8916,7 +9263,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>473</v>
       </c>
@@ -8930,7 +9277,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>476</v>
       </c>
@@ -8944,7 +9291,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>479</v>
       </c>
@@ -8958,7 +9305,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>482</v>
       </c>
@@ -8972,7 +9319,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>485</v>
       </c>
@@ -8986,7 +9333,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>488</v>
       </c>
@@ -9000,7 +9347,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>491</v>
       </c>
@@ -9014,7 +9361,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>494</v>
       </c>
@@ -9028,7 +9375,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>497</v>
       </c>
@@ -9042,7 +9389,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>500</v>
       </c>
@@ -9056,7 +9403,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>503</v>
       </c>
@@ -9070,7 +9417,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>506</v>
       </c>
@@ -9084,7 +9431,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>509</v>
       </c>
@@ -9098,7 +9445,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>512</v>
       </c>
@@ -9112,7 +9459,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>515</v>
       </c>
@@ -9126,7 +9473,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>518</v>
       </c>
@@ -9140,7 +9487,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>521</v>
       </c>
@@ -9154,7 +9501,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>524</v>
       </c>
@@ -9168,7 +9515,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>527</v>
       </c>
@@ -9182,7 +9529,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>530</v>
       </c>
@@ -9196,7 +9543,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>533</v>
       </c>
@@ -9210,7 +9557,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>536</v>
       </c>
@@ -9224,7 +9571,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>538</v>
       </c>
@@ -9238,7 +9585,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>540</v>
       </c>
@@ -9252,7 +9599,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>543</v>
       </c>
@@ -9266,7 +9613,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>546</v>
       </c>
@@ -9280,7 +9627,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>549</v>
       </c>
@@ -9294,7 +9641,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>552</v>
       </c>
@@ -9308,7 +9655,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>555</v>
       </c>
@@ -9322,7 +9669,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>558</v>
       </c>
@@ -9336,7 +9683,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>561</v>
       </c>
@@ -9350,7 +9697,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>564</v>
       </c>
@@ -9364,7 +9711,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>567</v>
       </c>
@@ -9378,7 +9725,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>570</v>
       </c>
@@ -9392,7 +9739,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>573</v>
       </c>
@@ -9406,7 +9753,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>576</v>
       </c>
@@ -9420,7 +9767,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>579</v>
       </c>
@@ -9434,7 +9781,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>582</v>
       </c>
@@ -9448,7 +9795,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>585</v>
       </c>
@@ -9462,7 +9809,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>588</v>
       </c>
@@ -9476,7 +9823,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>591</v>
       </c>
@@ -9490,7 +9837,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>594</v>
       </c>
@@ -9504,7 +9851,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>596</v>
       </c>
@@ -9518,7 +9865,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>599</v>
       </c>
@@ -9532,10 +9879,13 @@
         <v>600</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>602</v>
       </c>
+      <c r="B212" t="s">
+        <v>2068</v>
+      </c>
       <c r="D212" t="s">
         <v>604</v>
       </c>
@@ -9543,7 +9893,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>605</v>
       </c>
@@ -9557,7 +9907,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>608</v>
       </c>
@@ -9571,7 +9921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>610</v>
       </c>
@@ -9585,7 +9935,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>613</v>
       </c>
@@ -9599,7 +9949,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>616</v>
       </c>
@@ -9613,7 +9963,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>619</v>
       </c>
@@ -9627,7 +9977,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>622</v>
       </c>
@@ -9641,7 +9991,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>625</v>
       </c>
@@ -9655,7 +10005,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>628</v>
       </c>
@@ -9669,7 +10019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>630</v>
       </c>
@@ -9683,7 +10033,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>633</v>
       </c>
@@ -9697,7 +10047,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>636</v>
       </c>
@@ -9711,7 +10061,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>639</v>
       </c>
@@ -9725,7 +10075,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>642</v>
       </c>
@@ -9739,7 +10089,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>645</v>
       </c>
@@ -9753,7 +10103,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>648</v>
       </c>
@@ -9767,7 +10117,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>651</v>
       </c>
@@ -9781,7 +10131,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>654</v>
       </c>
@@ -9795,7 +10145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>656</v>
       </c>
@@ -9809,7 +10159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>658</v>
       </c>
@@ -9823,7 +10173,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>661</v>
       </c>
@@ -9837,7 +10187,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>664</v>
       </c>
@@ -9851,7 +10201,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>667</v>
       </c>
@@ -9865,7 +10215,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>670</v>
       </c>
@@ -9879,7 +10229,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>673</v>
       </c>
@@ -9893,7 +10243,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>676</v>
       </c>
@@ -9907,7 +10257,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>679</v>
       </c>
@@ -9921,7 +10271,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>682</v>
       </c>
@@ -9935,7 +10285,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>685</v>
       </c>
@@ -9949,7 +10299,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>688</v>
       </c>
@@ -9963,7 +10313,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>691</v>
       </c>
@@ -9977,7 +10327,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>693</v>
       </c>
@@ -9991,7 +10341,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>696</v>
       </c>
@@ -10005,7 +10355,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>699</v>
       </c>
@@ -10019,7 +10369,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>702</v>
       </c>
@@ -10033,7 +10383,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>705</v>
       </c>
@@ -10047,7 +10397,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>708</v>
       </c>
@@ -10061,7 +10411,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>711</v>
       </c>
@@ -10075,7 +10425,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>714</v>
       </c>
@@ -10089,7 +10439,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>717</v>
       </c>
@@ -10103,7 +10453,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>720</v>
       </c>
@@ -10117,7 +10467,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>723</v>
       </c>
@@ -10131,7 +10481,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>726</v>
       </c>
@@ -10145,7 +10495,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>729</v>
       </c>
@@ -10159,7 +10509,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>732</v>
       </c>
@@ -10173,7 +10523,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>734</v>
       </c>
@@ -10187,7 +10537,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>737</v>
       </c>
@@ -10201,7 +10551,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>740</v>
       </c>
@@ -10215,7 +10565,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>743</v>
       </c>
@@ -10229,7 +10579,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>746</v>
       </c>
@@ -10243,7 +10593,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>749</v>
       </c>
@@ -10257,7 +10607,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>752</v>
       </c>
@@ -10271,7 +10621,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>755</v>
       </c>
@@ -10285,7 +10635,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>758</v>
       </c>
@@ -10299,7 +10649,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>761</v>
       </c>
@@ -10313,7 +10663,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>764</v>
       </c>
@@ -10327,7 +10677,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>767</v>
       </c>
@@ -10341,7 +10691,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>770</v>
       </c>
@@ -10355,7 +10705,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>773</v>
       </c>
@@ -10369,7 +10719,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>776</v>
       </c>
@@ -10383,7 +10733,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>779</v>
       </c>
@@ -10397,7 +10747,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>782</v>
       </c>
@@ -10411,7 +10761,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>785</v>
       </c>
@@ -10425,7 +10775,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>788</v>
       </c>
@@ -10439,7 +10789,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>791</v>
       </c>
@@ -10453,7 +10803,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>793</v>
       </c>
@@ -10467,7 +10817,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>796</v>
       </c>
@@ -10481,7 +10831,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>798</v>
       </c>
@@ -10495,7 +10845,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>801</v>
       </c>
@@ -10509,7 +10859,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>804</v>
       </c>
@@ -10523,7 +10873,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>807</v>
       </c>
@@ -10537,7 +10887,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>810</v>
       </c>
@@ -10551,7 +10901,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>813</v>
       </c>
@@ -10565,7 +10915,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>815</v>
       </c>
@@ -10579,7 +10929,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>818</v>
       </c>
@@ -10593,7 +10943,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>821</v>
       </c>
@@ -10607,7 +10957,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>823</v>
       </c>
@@ -10621,7 +10971,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>826</v>
       </c>
@@ -10635,7 +10985,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>829</v>
       </c>
@@ -10649,7 +10999,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>832</v>
       </c>
@@ -10663,7 +11013,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>835</v>
       </c>
@@ -10677,7 +11027,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>838</v>
       </c>
@@ -10691,7 +11041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>840</v>
       </c>
@@ -10705,7 +11055,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>843</v>
       </c>
@@ -10719,7 +11069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>845</v>
       </c>
@@ -10733,7 +11083,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>847</v>
       </c>
@@ -10747,7 +11097,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>850</v>
       </c>
@@ -10761,7 +11111,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>853</v>
       </c>
@@ -10775,7 +11125,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>856</v>
       </c>
@@ -10789,7 +11139,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>859</v>
       </c>
@@ -10803,7 +11153,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>862</v>
       </c>
@@ -10817,7 +11167,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>865</v>
       </c>
@@ -10831,7 +11181,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>868</v>
       </c>
@@ -10845,7 +11195,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>871</v>
       </c>
@@ -10859,7 +11209,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>874</v>
       </c>
@@ -10873,7 +11223,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>877</v>
       </c>
@@ -10887,7 +11237,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>879</v>
       </c>
@@ -10901,7 +11251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>881</v>
       </c>
@@ -10915,7 +11265,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>884</v>
       </c>
@@ -10929,7 +11279,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>886</v>
       </c>
@@ -10943,10 +11293,13 @@
         <v>887</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>889</v>
       </c>
+      <c r="B313" t="s">
+        <v>2016</v>
+      </c>
       <c r="D313" t="s">
         <v>891</v>
       </c>
@@ -10954,10 +11307,13 @@
         <v>890</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>892</v>
       </c>
+      <c r="B314" t="s">
+        <v>1990</v>
+      </c>
       <c r="D314" t="s">
         <v>894</v>
       </c>
@@ -10965,10 +11321,13 @@
         <v>893</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>895</v>
       </c>
+      <c r="B315" t="s">
+        <v>2049</v>
+      </c>
       <c r="D315" t="s">
         <v>897</v>
       </c>
@@ -10976,10 +11335,13 @@
         <v>896</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>898</v>
       </c>
+      <c r="B316" t="s">
+        <v>1977</v>
+      </c>
       <c r="D316" t="s">
         <v>900</v>
       </c>
@@ -10987,10 +11349,13 @@
         <v>899</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>901</v>
       </c>
+      <c r="B317" s="1" t="s">
+        <v>1980</v>
+      </c>
       <c r="D317" t="s">
         <v>903</v>
       </c>
@@ -10998,10 +11363,13 @@
         <v>902</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>904</v>
       </c>
+      <c r="B318" t="s">
+        <v>2014</v>
+      </c>
       <c r="D318" t="s">
         <v>906</v>
       </c>
@@ -11009,10 +11377,13 @@
         <v>905</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>907</v>
       </c>
+      <c r="B319" t="s">
+        <v>2001</v>
+      </c>
       <c r="D319" t="s">
         <v>909</v>
       </c>
@@ -11020,7 +11391,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>910</v>
       </c>
@@ -11034,10 +11405,13 @@
         <v>911</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>913</v>
       </c>
+      <c r="B321" t="s">
+        <v>2051</v>
+      </c>
       <c r="D321" t="s">
         <v>915</v>
       </c>
@@ -11045,10 +11419,13 @@
         <v>914</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>916</v>
       </c>
+      <c r="B322" s="1" t="s">
+        <v>1980</v>
+      </c>
       <c r="D322" t="s">
         <v>918</v>
       </c>
@@ -11056,7 +11433,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>919</v>
       </c>
@@ -11070,10 +11447,13 @@
         <v>920</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>922</v>
       </c>
+      <c r="B324" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D324" t="s">
         <v>924</v>
       </c>
@@ -11081,10 +11461,13 @@
         <v>923</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>925</v>
       </c>
+      <c r="B325" t="s">
+        <v>1989</v>
+      </c>
       <c r="D325" t="s">
         <v>927</v>
       </c>
@@ -11092,10 +11475,13 @@
         <v>926</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>928</v>
       </c>
+      <c r="B326" t="s">
+        <v>2050</v>
+      </c>
       <c r="D326" t="s">
         <v>930</v>
       </c>
@@ -11103,10 +11489,13 @@
         <v>929</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>931</v>
       </c>
+      <c r="B327" t="s">
+        <v>1988</v>
+      </c>
       <c r="D327" t="s">
         <v>933</v>
       </c>
@@ -11114,10 +11503,13 @@
         <v>932</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>934</v>
       </c>
+      <c r="B328" s="1" t="s">
+        <v>1980</v>
+      </c>
       <c r="D328" t="s">
         <v>936</v>
       </c>
@@ -11125,10 +11517,13 @@
         <v>935</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>937</v>
       </c>
+      <c r="B329" s="1" t="s">
+        <v>1980</v>
+      </c>
       <c r="D329" t="s">
         <v>939</v>
       </c>
@@ -11136,10 +11531,13 @@
         <v>938</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>940</v>
       </c>
+      <c r="B330" t="s">
+        <v>1979</v>
+      </c>
       <c r="D330" t="s">
         <v>942</v>
       </c>
@@ -11147,10 +11545,13 @@
         <v>941</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>943</v>
       </c>
+      <c r="B331" t="s">
+        <v>2016</v>
+      </c>
       <c r="D331" t="s">
         <v>945</v>
       </c>
@@ -11158,10 +11559,13 @@
         <v>944</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>946</v>
       </c>
+      <c r="B332" t="s">
+        <v>1949</v>
+      </c>
       <c r="D332" t="s">
         <v>948</v>
       </c>
@@ -11169,10 +11573,13 @@
         <v>947</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>949</v>
       </c>
+      <c r="B333" t="s">
+        <v>2007</v>
+      </c>
       <c r="D333" t="s">
         <v>950</v>
       </c>
@@ -11180,10 +11587,13 @@
         <v>358</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>951</v>
       </c>
+      <c r="B334" s="1" t="s">
+        <v>1980</v>
+      </c>
       <c r="D334" t="s">
         <v>953</v>
       </c>
@@ -11191,10 +11601,13 @@
         <v>952</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>954</v>
       </c>
+      <c r="B335" t="s">
+        <v>1990</v>
+      </c>
       <c r="D335" t="s">
         <v>956</v>
       </c>
@@ -11202,10 +11615,13 @@
         <v>955</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>957</v>
       </c>
+      <c r="B336" t="s">
+        <v>1949</v>
+      </c>
       <c r="D336" t="s">
         <v>959</v>
       </c>
@@ -11213,10 +11629,13 @@
         <v>958</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>960</v>
       </c>
+      <c r="B337" t="s">
+        <v>1955</v>
+      </c>
       <c r="D337" t="s">
         <v>962</v>
       </c>
@@ -11224,10 +11643,13 @@
         <v>961</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>963</v>
       </c>
+      <c r="B338" t="s">
+        <v>1994</v>
+      </c>
       <c r="D338" t="s">
         <v>965</v>
       </c>
@@ -11235,10 +11657,13 @@
         <v>964</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>966</v>
       </c>
+      <c r="B339" t="s">
+        <v>2031</v>
+      </c>
       <c r="D339" t="s">
         <v>968</v>
       </c>
@@ -11246,10 +11671,13 @@
         <v>967</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>969</v>
       </c>
+      <c r="B340" t="s">
+        <v>1949</v>
+      </c>
       <c r="D340" t="s">
         <v>971</v>
       </c>
@@ -11257,10 +11685,13 @@
         <v>970</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>972</v>
       </c>
+      <c r="B341" t="s">
+        <v>1947</v>
+      </c>
       <c r="D341" t="s">
         <v>973</v>
       </c>
@@ -11268,10 +11699,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>974</v>
       </c>
+      <c r="B342" t="s">
+        <v>2052</v>
+      </c>
       <c r="D342" t="s">
         <v>976</v>
       </c>
@@ -11279,10 +11713,13 @@
         <v>975</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>977</v>
       </c>
+      <c r="B343" t="s">
+        <v>2053</v>
+      </c>
       <c r="D343" t="s">
         <v>979</v>
       </c>
@@ -11290,10 +11727,13 @@
         <v>978</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>980</v>
       </c>
+      <c r="B344" t="s">
+        <v>1972</v>
+      </c>
       <c r="D344" t="s">
         <v>982</v>
       </c>
@@ -11301,7 +11741,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>983</v>
       </c>
@@ -11315,10 +11755,13 @@
         <v>984</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>986</v>
       </c>
+      <c r="B346" t="s">
+        <v>1998</v>
+      </c>
       <c r="D346" t="s">
         <v>987</v>
       </c>
@@ -11326,10 +11769,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>988</v>
       </c>
+      <c r="B347" t="s">
+        <v>1988</v>
+      </c>
       <c r="D347" t="s">
         <v>990</v>
       </c>
@@ -11337,7 +11783,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>991</v>
       </c>
@@ -11351,10 +11797,13 @@
         <v>992</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>994</v>
       </c>
+      <c r="B349" t="s">
+        <v>1993</v>
+      </c>
       <c r="D349" t="s">
         <v>996</v>
       </c>
@@ -11362,10 +11811,13 @@
         <v>995</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>997</v>
       </c>
+      <c r="B350" t="s">
+        <v>1995</v>
+      </c>
       <c r="D350" t="s">
         <v>999</v>
       </c>
@@ -11373,7 +11825,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1000</v>
       </c>
@@ -11384,7 +11836,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1003</v>
       </c>
@@ -11395,7 +11847,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1006</v>
       </c>
@@ -11406,7 +11858,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1009</v>
       </c>
@@ -11417,10 +11869,13 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1012</v>
       </c>
+      <c r="B355" t="s">
+        <v>2079</v>
+      </c>
       <c r="D355" t="s">
         <v>1014</v>
       </c>
@@ -11428,7 +11883,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1015</v>
       </c>
@@ -11439,7 +11894,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1018</v>
       </c>
@@ -11450,10 +11905,13 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1021</v>
       </c>
+      <c r="B358" s="1" t="s">
+        <v>1980</v>
+      </c>
       <c r="D358" t="s">
         <v>1023</v>
       </c>
@@ -11461,10 +11919,13 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1024</v>
       </c>
+      <c r="B359" t="s">
+        <v>2007</v>
+      </c>
       <c r="D359" t="s">
         <v>1026</v>
       </c>
@@ -11472,7 +11933,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1027</v>
       </c>
@@ -11483,7 +11944,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1030</v>
       </c>
@@ -11494,10 +11955,13 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1033</v>
       </c>
+      <c r="B362" t="s">
+        <v>1998</v>
+      </c>
       <c r="D362" t="s">
         <v>1034</v>
       </c>
@@ -11505,7 +11969,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1035</v>
       </c>
@@ -11516,7 +11980,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1038</v>
       </c>
@@ -11527,7 +11991,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1041</v>
       </c>
@@ -11538,7 +12002,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1043</v>
       </c>
@@ -11549,7 +12013,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1046</v>
       </c>
@@ -11560,7 +12024,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1049</v>
       </c>
@@ -11571,7 +12035,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1052</v>
       </c>
@@ -11585,7 +12049,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1055</v>
       </c>
@@ -11599,7 +12063,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1058</v>
       </c>
@@ -11610,7 +12074,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1061</v>
       </c>
@@ -11621,7 +12085,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1064</v>
       </c>
@@ -11635,7 +12099,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1067</v>
       </c>
@@ -11649,7 +12113,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1070</v>
       </c>
@@ -11660,7 +12124,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1073</v>
       </c>
@@ -11671,7 +12135,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1076</v>
       </c>
@@ -11682,7 +12146,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1079</v>
       </c>
@@ -11693,7 +12157,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1082</v>
       </c>
@@ -11704,10 +12168,13 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1085</v>
       </c>
+      <c r="B380" t="s">
+        <v>1947</v>
+      </c>
       <c r="D380" t="s">
         <v>1087</v>
       </c>
@@ -11715,7 +12182,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1088</v>
       </c>
@@ -11726,7 +12193,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1091</v>
       </c>
@@ -11740,7 +12207,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1094</v>
       </c>
@@ -11751,7 +12218,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1097</v>
       </c>
@@ -11762,7 +12229,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1100</v>
       </c>
@@ -11776,7 +12243,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1103</v>
       </c>
@@ -11787,7 +12254,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1106</v>
       </c>
@@ -11798,10 +12265,13 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1109</v>
       </c>
+      <c r="B388" t="s">
+        <v>1979</v>
+      </c>
       <c r="D388" t="s">
         <v>1111</v>
       </c>
@@ -11809,7 +12279,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1112</v>
       </c>
@@ -11820,10 +12290,13 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1115</v>
       </c>
+      <c r="B390" t="s">
+        <v>1972</v>
+      </c>
       <c r="D390" t="s">
         <v>1117</v>
       </c>
@@ -11831,7 +12304,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1118</v>
       </c>
@@ -11842,7 +12315,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1121</v>
       </c>
@@ -11856,7 +12329,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1124</v>
       </c>
@@ -11867,7 +12340,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1127</v>
       </c>
@@ -11878,7 +12351,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1130</v>
       </c>
@@ -11889,7 +12362,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1133</v>
       </c>
@@ -11903,7 +12376,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1136</v>
       </c>
@@ -11914,7 +12387,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1139</v>
       </c>
@@ -11925,10 +12398,13 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1142</v>
       </c>
+      <c r="B399" t="s">
+        <v>1976</v>
+      </c>
       <c r="D399" t="s">
         <v>1144</v>
       </c>
@@ -11936,7 +12412,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1145</v>
       </c>
@@ -11947,7 +12423,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1148</v>
       </c>
@@ -11958,7 +12434,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1151</v>
       </c>
@@ -11972,10 +12448,13 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1154</v>
       </c>
+      <c r="B403" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D403" t="s">
         <v>1156</v>
       </c>
@@ -11983,7 +12462,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1157</v>
       </c>
@@ -11994,10 +12473,13 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1160</v>
       </c>
+      <c r="B405" t="s">
+        <v>2081</v>
+      </c>
       <c r="D405" t="s">
         <v>1162</v>
       </c>
@@ -12005,7 +12487,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1163</v>
       </c>
@@ -12016,10 +12498,13 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1166</v>
       </c>
+      <c r="B407" t="s">
+        <v>1972</v>
+      </c>
       <c r="D407" t="s">
         <v>1168</v>
       </c>
@@ -12027,7 +12512,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1169</v>
       </c>
@@ -12038,7 +12523,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1172</v>
       </c>
@@ -12049,10 +12534,13 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1175</v>
       </c>
+      <c r="B410" t="s">
+        <v>1990</v>
+      </c>
       <c r="D410" t="s">
         <v>1177</v>
       </c>
@@ -12060,7 +12548,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1178</v>
       </c>
@@ -12071,10 +12559,13 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1181</v>
       </c>
+      <c r="B412" t="s">
+        <v>1976</v>
+      </c>
       <c r="D412" t="s">
         <v>1183</v>
       </c>
@@ -12082,7 +12573,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1184</v>
       </c>
@@ -12093,7 +12584,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1187</v>
       </c>
@@ -12107,7 +12598,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1190</v>
       </c>
@@ -12118,10 +12609,13 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1193</v>
       </c>
+      <c r="B416" t="s">
+        <v>2082</v>
+      </c>
       <c r="D416" t="s">
         <v>1195</v>
       </c>
@@ -12129,10 +12623,13 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1196</v>
       </c>
+      <c r="B417" t="s">
+        <v>2080</v>
+      </c>
       <c r="D417" t="s">
         <v>1198</v>
       </c>
@@ -12140,7 +12637,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1199</v>
       </c>
@@ -12154,10 +12651,13 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1202</v>
       </c>
+      <c r="B419" t="s">
+        <v>1947</v>
+      </c>
       <c r="D419" t="s">
         <v>1204</v>
       </c>
@@ -12165,10 +12665,13 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1205</v>
       </c>
+      <c r="B420" t="s">
+        <v>2002</v>
+      </c>
       <c r="D420" t="s">
         <v>1207</v>
       </c>
@@ -12176,7 +12679,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1208</v>
       </c>
@@ -12190,10 +12693,13 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1211</v>
       </c>
+      <c r="B422" t="s">
+        <v>1972</v>
+      </c>
       <c r="D422" t="s">
         <v>1213</v>
       </c>
@@ -12201,7 +12707,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1214</v>
       </c>
@@ -12215,10 +12721,13 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1217</v>
       </c>
+      <c r="B424" t="s">
+        <v>2002</v>
+      </c>
       <c r="D424" t="s">
         <v>1219</v>
       </c>
@@ -12226,10 +12735,13 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1220</v>
       </c>
+      <c r="B425" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D425" t="s">
         <v>1222</v>
       </c>
@@ -12237,10 +12749,13 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1223</v>
       </c>
+      <c r="B426" t="s">
+        <v>1988</v>
+      </c>
       <c r="D426" t="s">
         <v>1225</v>
       </c>
@@ -12248,10 +12763,13 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1226</v>
       </c>
+      <c r="B427" t="s">
+        <v>2076</v>
+      </c>
       <c r="D427" t="s">
         <v>1228</v>
       </c>
@@ -12259,10 +12777,13 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1229</v>
       </c>
+      <c r="B428" t="s">
+        <v>2072</v>
+      </c>
       <c r="D428" t="s">
         <v>1231</v>
       </c>
@@ -12270,10 +12791,13 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1232</v>
       </c>
+      <c r="B429" t="s">
+        <v>2063</v>
+      </c>
       <c r="D429" t="s">
         <v>1234</v>
       </c>
@@ -12281,10 +12805,13 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1235</v>
       </c>
+      <c r="B430" s="1" t="s">
+        <v>2056</v>
+      </c>
       <c r="D430" t="s">
         <v>1237</v>
       </c>
@@ -12292,10 +12819,13 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1238</v>
       </c>
+      <c r="B431" t="s">
+        <v>1972</v>
+      </c>
       <c r="D431" t="s">
         <v>1240</v>
       </c>
@@ -12303,10 +12833,13 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1241</v>
       </c>
+      <c r="B432" t="s">
+        <v>2077</v>
+      </c>
       <c r="D432" t="s">
         <v>1243</v>
       </c>
@@ -12314,10 +12847,13 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1244</v>
       </c>
+      <c r="B433" t="s">
+        <v>1972</v>
+      </c>
       <c r="D433" t="s">
         <v>1246</v>
       </c>
@@ -12325,10 +12861,13 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1247</v>
       </c>
+      <c r="B434" t="s">
+        <v>2068</v>
+      </c>
       <c r="D434" t="s">
         <v>1249</v>
       </c>
@@ -12336,10 +12875,13 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1250</v>
       </c>
+      <c r="B435" t="s">
+        <v>1947</v>
+      </c>
       <c r="D435" t="s">
         <v>1252</v>
       </c>
@@ -12347,10 +12889,13 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1253</v>
       </c>
+      <c r="B436" t="s">
+        <v>2078</v>
+      </c>
       <c r="D436" t="s">
         <v>1255</v>
       </c>
@@ -12358,10 +12903,13 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1256</v>
       </c>
+      <c r="B437" t="s">
+        <v>2063</v>
+      </c>
       <c r="D437" t="s">
         <v>1258</v>
       </c>
@@ -12369,7 +12917,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1259</v>
       </c>
@@ -12383,10 +12931,13 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1262</v>
       </c>
+      <c r="B439" t="s">
+        <v>1972</v>
+      </c>
       <c r="D439" t="s">
         <v>1264</v>
       </c>
@@ -12394,10 +12945,13 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1265</v>
       </c>
+      <c r="B440" t="s">
+        <v>2001</v>
+      </c>
       <c r="D440" t="s">
         <v>1267</v>
       </c>
@@ -12405,10 +12959,13 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1268</v>
       </c>
+      <c r="B441" t="s">
+        <v>2063</v>
+      </c>
       <c r="D441" t="s">
         <v>1270</v>
       </c>
@@ -12416,10 +12973,13 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1271</v>
       </c>
+      <c r="B442" t="s">
+        <v>2063</v>
+      </c>
       <c r="D442" t="s">
         <v>1273</v>
       </c>
@@ -12427,10 +12987,13 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1274</v>
       </c>
+      <c r="B443" t="s">
+        <v>2063</v>
+      </c>
       <c r="D443" t="s">
         <v>1276</v>
       </c>
@@ -12438,10 +13001,13 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1277</v>
       </c>
+      <c r="B444" t="s">
+        <v>1971</v>
+      </c>
       <c r="D444" t="s">
         <v>1279</v>
       </c>
@@ -12449,10 +13015,13 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1280</v>
       </c>
+      <c r="B445" s="1" t="s">
+        <v>1970</v>
+      </c>
       <c r="D445" t="s">
         <v>1282</v>
       </c>
@@ -12460,10 +13029,13 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1283</v>
       </c>
+      <c r="B446" t="s">
+        <v>2066</v>
+      </c>
       <c r="D446" t="s">
         <v>1285</v>
       </c>
@@ -12471,10 +13043,13 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1286</v>
       </c>
+      <c r="B447" s="1" t="s">
+        <v>2056</v>
+      </c>
       <c r="D447" t="s">
         <v>1288</v>
       </c>
@@ -12482,10 +13057,13 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1289</v>
       </c>
+      <c r="B448" t="s">
+        <v>1971</v>
+      </c>
       <c r="D448" t="s">
         <v>1291</v>
       </c>
@@ -12493,10 +13071,13 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1292</v>
       </c>
+      <c r="B449" s="2" t="s">
+        <v>2074</v>
+      </c>
       <c r="D449" t="s">
         <v>1294</v>
       </c>
@@ -12504,10 +13085,13 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1295</v>
       </c>
+      <c r="B450" t="s">
+        <v>2063</v>
+      </c>
       <c r="D450" t="s">
         <v>1297</v>
       </c>
@@ -12515,10 +13099,13 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1298</v>
       </c>
+      <c r="B451" t="s">
+        <v>2075</v>
+      </c>
       <c r="D451" t="s">
         <v>1300</v>
       </c>
@@ -12526,10 +13113,13 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1301</v>
       </c>
+      <c r="B452" t="s">
+        <v>2002</v>
+      </c>
       <c r="D452" t="s">
         <v>1303</v>
       </c>
@@ -12537,7 +13127,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1304</v>
       </c>
@@ -12551,10 +13141,13 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1307</v>
       </c>
+      <c r="B454" t="s">
+        <v>2072</v>
+      </c>
       <c r="D454" t="s">
         <v>1309</v>
       </c>
@@ -12562,10 +13155,13 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1310</v>
       </c>
+      <c r="B455" t="s">
+        <v>1973</v>
+      </c>
       <c r="D455" t="s">
         <v>1312</v>
       </c>
@@ -12573,10 +13169,13 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1313</v>
       </c>
+      <c r="B456" s="1" t="s">
+        <v>1970</v>
+      </c>
       <c r="D456" t="s">
         <v>1315</v>
       </c>
@@ -12584,10 +13183,13 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1316</v>
       </c>
+      <c r="B457" t="s">
+        <v>2073</v>
+      </c>
       <c r="D457" t="s">
         <v>1317</v>
       </c>
@@ -12595,10 +13197,13 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1318</v>
       </c>
+      <c r="B458" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D458" t="s">
         <v>1320</v>
       </c>
@@ -12606,10 +13211,13 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1321</v>
       </c>
+      <c r="B459" t="s">
+        <v>1971</v>
+      </c>
       <c r="D459" t="s">
         <v>1323</v>
       </c>
@@ -12617,10 +13225,13 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1324</v>
       </c>
+      <c r="B460" s="1" t="s">
+        <v>2056</v>
+      </c>
       <c r="D460" t="s">
         <v>1326</v>
       </c>
@@ -12628,7 +13239,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1327</v>
       </c>
@@ -12642,10 +13253,13 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1330</v>
       </c>
+      <c r="B462" t="s">
+        <v>1976</v>
+      </c>
       <c r="D462" t="s">
         <v>1332</v>
       </c>
@@ -12653,7 +13267,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1333</v>
       </c>
@@ -12667,10 +13281,13 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1336</v>
       </c>
+      <c r="B464" t="s">
+        <v>2066</v>
+      </c>
       <c r="D464" t="s">
         <v>1338</v>
       </c>
@@ -12678,10 +13295,13 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1339</v>
       </c>
+      <c r="B465" t="s">
+        <v>1977</v>
+      </c>
       <c r="D465" t="s">
         <v>1341</v>
       </c>
@@ -12689,10 +13309,13 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1342</v>
       </c>
+      <c r="B466" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D466" t="s">
         <v>1344</v>
       </c>
@@ -12700,10 +13323,13 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1345</v>
       </c>
+      <c r="B467" s="1" t="s">
+        <v>1980</v>
+      </c>
       <c r="D467" t="s">
         <v>1347</v>
       </c>
@@ -12711,10 +13337,13 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1348</v>
       </c>
+      <c r="B468" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D468" t="s">
         <v>1350</v>
       </c>
@@ -12722,10 +13351,13 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1351</v>
       </c>
+      <c r="B469" s="2" t="s">
+        <v>2002</v>
+      </c>
       <c r="D469" t="s">
         <v>1353</v>
       </c>
@@ -12733,7 +13365,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1354</v>
       </c>
@@ -12747,10 +13379,13 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1357</v>
       </c>
+      <c r="B471" t="s">
+        <v>2063</v>
+      </c>
       <c r="D471" t="s">
         <v>1359</v>
       </c>
@@ -12758,10 +13393,13 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1360</v>
       </c>
+      <c r="B472" t="s">
+        <v>2064</v>
+      </c>
       <c r="D472" t="s">
         <v>1362</v>
       </c>
@@ -12769,10 +13407,13 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1363</v>
       </c>
+      <c r="B473" t="s">
+        <v>2063</v>
+      </c>
       <c r="D473" t="s">
         <v>1365</v>
       </c>
@@ -12780,10 +13421,13 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1366</v>
       </c>
+      <c r="B474" s="1" t="s">
+        <v>2056</v>
+      </c>
       <c r="D474" t="s">
         <v>1368</v>
       </c>
@@ -12791,10 +13435,13 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1369</v>
       </c>
+      <c r="B475" t="s">
+        <v>2065</v>
+      </c>
       <c r="D475" t="s">
         <v>1371</v>
       </c>
@@ -12802,10 +13449,13 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1372</v>
       </c>
+      <c r="B476" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D476" t="s">
         <v>1374</v>
       </c>
@@ -12813,10 +13463,13 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1375</v>
       </c>
+      <c r="B477" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D477" t="s">
         <v>1377</v>
       </c>
@@ -12824,10 +13477,13 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1378</v>
       </c>
+      <c r="B478" s="2" t="s">
+        <v>2071</v>
+      </c>
       <c r="D478" t="s">
         <v>1380</v>
       </c>
@@ -12835,10 +13491,13 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1381</v>
       </c>
+      <c r="B479" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D479" t="s">
         <v>1383</v>
       </c>
@@ -12846,10 +13505,13 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1384</v>
       </c>
+      <c r="B480" t="s">
+        <v>1955</v>
+      </c>
       <c r="D480" t="s">
         <v>1386</v>
       </c>
@@ -12857,10 +13519,13 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1387</v>
       </c>
+      <c r="B481" t="s">
+        <v>2069</v>
+      </c>
       <c r="D481" t="s">
         <v>1389</v>
       </c>
@@ -12868,10 +13533,13 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1390</v>
       </c>
+      <c r="B482" t="s">
+        <v>1955</v>
+      </c>
       <c r="D482" t="s">
         <v>1392</v>
       </c>
@@ -12879,10 +13547,13 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1393</v>
       </c>
+      <c r="B483" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D483" t="s">
         <v>1395</v>
       </c>
@@ -12890,10 +13561,13 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1396</v>
       </c>
+      <c r="B484" t="s">
+        <v>2013</v>
+      </c>
       <c r="D484" t="s">
         <v>1398</v>
       </c>
@@ -12901,10 +13575,13 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1399</v>
       </c>
+      <c r="B485" t="s">
+        <v>2070</v>
+      </c>
       <c r="D485" t="s">
         <v>1401</v>
       </c>
@@ -12912,10 +13589,13 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1402</v>
       </c>
+      <c r="B486" t="s">
+        <v>2069</v>
+      </c>
       <c r="D486" t="s">
         <v>1404</v>
       </c>
@@ -12923,10 +13603,13 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1405</v>
       </c>
+      <c r="B487" t="s">
+        <v>2068</v>
+      </c>
       <c r="D487" t="s">
         <v>1407</v>
       </c>
@@ -12934,7 +13617,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1408</v>
       </c>
@@ -12948,10 +13631,13 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1411</v>
       </c>
+      <c r="B489" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D489" t="s">
         <v>1413</v>
       </c>
@@ -12959,10 +13645,13 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1414</v>
       </c>
+      <c r="B490" t="s">
+        <v>2013</v>
+      </c>
       <c r="D490" t="s">
         <v>1416</v>
       </c>
@@ -12970,10 +13659,13 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1417</v>
       </c>
+      <c r="B491" s="1" t="s">
+        <v>2060</v>
+      </c>
       <c r="D491" t="s">
         <v>1419</v>
       </c>
@@ -12981,10 +13673,13 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1420</v>
       </c>
+      <c r="B492" s="1" t="s">
+        <v>2056</v>
+      </c>
       <c r="D492" t="s">
         <v>1422</v>
       </c>
@@ -12992,21 +13687,27 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
+    <row r="493" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="D493" t="s">
+      <c r="B493" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D493" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="E493" t="s">
+      <c r="E493" s="1" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1426</v>
       </c>
+      <c r="B494" t="s">
+        <v>2004</v>
+      </c>
       <c r="D494" t="s">
         <v>1428</v>
       </c>
@@ -13014,10 +13715,13 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1429</v>
       </c>
+      <c r="B495" s="1" t="s">
+        <v>2056</v>
+      </c>
       <c r="D495" t="s">
         <v>1431</v>
       </c>
@@ -13025,10 +13729,13 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1432</v>
       </c>
+      <c r="B496" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D496" t="s">
         <v>1434</v>
       </c>
@@ -13036,10 +13743,13 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1435</v>
       </c>
+      <c r="B497" s="1" t="s">
+        <v>2060</v>
+      </c>
       <c r="D497" t="s">
         <v>1437</v>
       </c>
@@ -13047,10 +13757,13 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1438</v>
       </c>
+      <c r="B498" s="2" t="s">
+        <v>1988</v>
+      </c>
       <c r="D498" t="s">
         <v>1439</v>
       </c>
@@ -13058,10 +13771,13 @@
         <v>668</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1440</v>
       </c>
+      <c r="B499" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D499" t="s">
         <v>1442</v>
       </c>
@@ -13069,10 +13785,13 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1443</v>
       </c>
+      <c r="B500" s="2" t="s">
+        <v>2013</v>
+      </c>
       <c r="D500" t="s">
         <v>1445</v>
       </c>
@@ -13080,10 +13799,13 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1446</v>
       </c>
+      <c r="B501" t="s">
+        <v>2059</v>
+      </c>
       <c r="D501" t="s">
         <v>1448</v>
       </c>
@@ -13091,10 +13813,13 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1449</v>
       </c>
+      <c r="B502" t="s">
+        <v>2004</v>
+      </c>
       <c r="D502" t="s">
         <v>1451</v>
       </c>
@@ -13102,10 +13827,13 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1452</v>
       </c>
+      <c r="B503" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D503" t="s">
         <v>1454</v>
       </c>
@@ -13113,10 +13841,13 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1455</v>
       </c>
+      <c r="B504" t="s">
+        <v>2058</v>
+      </c>
       <c r="D504" t="s">
         <v>1457</v>
       </c>
@@ -13124,10 +13855,13 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1458</v>
       </c>
+      <c r="B505" s="1" t="s">
+        <v>2057</v>
+      </c>
       <c r="D505" t="s">
         <v>1460</v>
       </c>
@@ -13135,10 +13869,13 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1461</v>
       </c>
+      <c r="B506" t="s">
+        <v>2015</v>
+      </c>
       <c r="D506" t="s">
         <v>1463</v>
       </c>
@@ -13146,10 +13883,13 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1464</v>
       </c>
+      <c r="B507" s="1" t="s">
+        <v>2056</v>
+      </c>
       <c r="D507" t="s">
         <v>1466</v>
       </c>
@@ -13157,10 +13897,13 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1467</v>
       </c>
+      <c r="B508" t="s">
+        <v>1955</v>
+      </c>
       <c r="D508" t="s">
         <v>1469</v>
       </c>
@@ -13168,10 +13911,13 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1470</v>
       </c>
+      <c r="B509" t="s">
+        <v>1947</v>
+      </c>
       <c r="D509" t="s">
         <v>1472</v>
       </c>
@@ -13179,7 +13925,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1473</v>
       </c>
@@ -13193,7 +13939,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1475</v>
       </c>
@@ -13207,7 +13953,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1478</v>
       </c>
@@ -13221,7 +13967,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1481</v>
       </c>
@@ -13235,7 +13981,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1484</v>
       </c>
@@ -13249,7 +13995,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1487</v>
       </c>
@@ -13263,7 +14009,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1490</v>
       </c>
@@ -13277,7 +14023,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1493</v>
       </c>
@@ -13291,7 +14037,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1496</v>
       </c>
@@ -13305,7 +14051,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1499</v>
       </c>
@@ -13319,7 +14065,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1502</v>
       </c>
@@ -13333,7 +14079,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1505</v>
       </c>
@@ -13347,7 +14093,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1508</v>
       </c>
@@ -13361,7 +14107,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1511</v>
       </c>
@@ -13375,7 +14121,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1514</v>
       </c>
@@ -13389,7 +14135,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1517</v>
       </c>
@@ -13403,7 +14149,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1520</v>
       </c>
@@ -13417,7 +14163,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1523</v>
       </c>
@@ -13431,7 +14177,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1526</v>
       </c>
@@ -13445,7 +14191,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1529</v>
       </c>
@@ -13459,7 +14205,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1532</v>
       </c>
@@ -13473,7 +14219,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1535</v>
       </c>
@@ -13487,7 +14233,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1538</v>
       </c>
@@ -13501,7 +14247,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1541</v>
       </c>
@@ -13515,7 +14261,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1544</v>
       </c>
@@ -13529,7 +14275,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1547</v>
       </c>
@@ -13543,7 +14289,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1550</v>
       </c>
@@ -13557,7 +14303,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1553</v>
       </c>
@@ -13571,7 +14317,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1556</v>
       </c>
@@ -13585,7 +14331,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1559</v>
       </c>
@@ -13599,7 +14345,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1562</v>
       </c>
@@ -13613,7 +14359,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1565</v>
       </c>
@@ -13627,7 +14373,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1568</v>
       </c>
@@ -13641,7 +14387,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1571</v>
       </c>
@@ -13655,7 +14401,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1574</v>
       </c>
@@ -13669,7 +14415,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1577</v>
       </c>
@@ -13683,7 +14429,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1580</v>
       </c>
@@ -13697,7 +14443,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1583</v>
       </c>
@@ -13711,7 +14457,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1586</v>
       </c>
@@ -13725,7 +14471,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1589</v>
       </c>
@@ -13739,7 +14485,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1592</v>
       </c>
@@ -13753,7 +14499,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1595</v>
       </c>
@@ -13767,7 +14513,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1598</v>
       </c>
@@ -13781,7 +14527,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1600</v>
       </c>
@@ -13795,10 +14541,13 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1602</v>
       </c>
+      <c r="B554" t="s">
+        <v>2054</v>
+      </c>
       <c r="D554" t="s">
         <v>1604</v>
       </c>
@@ -13806,10 +14555,13 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1605</v>
       </c>
+      <c r="B555" t="s">
+        <v>2054</v>
+      </c>
       <c r="D555" t="s">
         <v>1607</v>
       </c>
@@ -13817,10 +14569,13 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1608</v>
       </c>
+      <c r="B556" t="s">
+        <v>1985</v>
+      </c>
       <c r="D556" t="s">
         <v>1610</v>
       </c>
@@ -13828,7 +14583,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1611</v>
       </c>
@@ -13842,7 +14597,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1614</v>
       </c>
@@ -13856,7 +14611,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1617</v>
       </c>
@@ -13870,10 +14625,13 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1620</v>
       </c>
+      <c r="B560" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D560" t="s">
         <v>1622</v>
       </c>
@@ -13881,10 +14639,13 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1623</v>
       </c>
+      <c r="B561" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D561" t="s">
         <v>1625</v>
       </c>
@@ -13892,10 +14653,13 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1626</v>
       </c>
+      <c r="B562" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D562" t="s">
         <v>1628</v>
       </c>
@@ -13903,10 +14667,13 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1629</v>
       </c>
+      <c r="B563" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D563" t="s">
         <v>1631</v>
       </c>
@@ -13914,10 +14681,13 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1632</v>
       </c>
+      <c r="B564" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D564" t="s">
         <v>1634</v>
       </c>
@@ -13925,10 +14695,13 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1635</v>
       </c>
+      <c r="B565" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D565" t="s">
         <v>1637</v>
       </c>
@@ -13936,10 +14709,13 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1638</v>
       </c>
+      <c r="B566" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D566" t="s">
         <v>1640</v>
       </c>
@@ -13947,10 +14723,13 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1641</v>
       </c>
+      <c r="B567" t="s">
+        <v>2055</v>
+      </c>
       <c r="D567" t="s">
         <v>1643</v>
       </c>
@@ -13958,10 +14737,13 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1644</v>
       </c>
+      <c r="B568" s="2" t="s">
+        <v>2067</v>
+      </c>
       <c r="D568" t="s">
         <v>1646</v>
       </c>
@@ -13969,7 +14751,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1647</v>
       </c>
@@ -13983,7 +14765,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1650</v>
       </c>
@@ -13997,10 +14779,13 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1653</v>
       </c>
+      <c r="B571" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D571" t="s">
         <v>1655</v>
       </c>
@@ -14008,7 +14793,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1656</v>
       </c>
@@ -14022,7 +14807,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1659</v>
       </c>
@@ -14036,7 +14821,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1662</v>
       </c>
@@ -14050,7 +14835,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1665</v>
       </c>
@@ -14064,10 +14849,13 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1668</v>
       </c>
+      <c r="B576" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="D576" t="s">
         <v>1670</v>
       </c>
@@ -14075,7 +14863,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1671</v>
       </c>
@@ -14086,7 +14874,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1674</v>
       </c>
@@ -14100,7 +14888,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1677</v>
       </c>
@@ -14114,7 +14902,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1680</v>
       </c>
@@ -14128,7 +14916,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1683</v>
       </c>
@@ -14142,7 +14930,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1686</v>
       </c>
@@ -14156,7 +14944,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1689</v>
       </c>
@@ -14170,7 +14958,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1692</v>
       </c>
@@ -14184,7 +14972,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1695</v>
       </c>
@@ -14198,10 +14986,13 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1698</v>
       </c>
+      <c r="B586" t="s">
+        <v>2062</v>
+      </c>
       <c r="D586" t="s">
         <v>1699</v>
       </c>
@@ -14209,7 +15000,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1700</v>
       </c>
@@ -14223,7 +15014,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1703</v>
       </c>
@@ -14237,7 +15028,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1706</v>
       </c>
@@ -14251,7 +15042,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1709</v>
       </c>
@@ -14265,7 +15056,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1712</v>
       </c>
@@ -14279,7 +15070,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1715</v>
       </c>
@@ -14293,7 +15084,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1718</v>
       </c>
@@ -14307,7 +15098,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1721</v>
       </c>
@@ -14321,7 +15112,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1724</v>
       </c>
@@ -14335,7 +15126,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1727</v>
       </c>
@@ -14349,7 +15140,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1730</v>
       </c>
@@ -14363,7 +15154,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1733</v>
       </c>
@@ -14377,7 +15168,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1736</v>
       </c>
@@ -14391,7 +15182,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1739</v>
       </c>
@@ -14405,7 +15196,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1742</v>
       </c>
@@ -14419,7 +15210,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1745</v>
       </c>
@@ -14433,7 +15224,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1748</v>
       </c>
@@ -14447,7 +15238,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1751</v>
       </c>
@@ -14461,7 +15252,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1753</v>
       </c>
@@ -14475,7 +15266,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1756</v>
       </c>
@@ -14489,7 +15280,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1759</v>
       </c>
@@ -14503,7 +15294,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1762</v>
       </c>
@@ -14517,7 +15308,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1765</v>
       </c>
@@ -14531,7 +15322,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1768</v>
       </c>
@@ -14542,7 +15333,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1770</v>
       </c>
@@ -14556,7 +15347,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1773</v>
       </c>
@@ -14570,7 +15361,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1776</v>
       </c>
@@ -14584,7 +15375,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1779</v>
       </c>
@@ -14598,7 +15389,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1782</v>
       </c>
@@ -14612,7 +15403,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1785</v>
       </c>
@@ -14626,7 +15417,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1788</v>
       </c>
@@ -14640,7 +15431,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1791</v>
       </c>
@@ -14654,7 +15445,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1794</v>
       </c>
@@ -14668,7 +15459,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1797</v>
       </c>
@@ -14682,7 +15473,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1800</v>
       </c>
@@ -14696,7 +15487,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1803</v>
       </c>
@@ -14710,7 +15501,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1806</v>
       </c>
@@ -14721,7 +15512,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1808</v>
       </c>
@@ -14732,7 +15523,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1811</v>
       </c>
@@ -14743,7 +15534,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1814</v>
       </c>
@@ -14754,7 +15545,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1817</v>
       </c>
@@ -14768,7 +15559,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1819</v>
       </c>
@@ -14782,7 +15573,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1822</v>
       </c>
@@ -14796,7 +15587,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1825</v>
       </c>
@@ -14810,7 +15601,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1827</v>
       </c>
@@ -14824,7 +15615,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1830</v>
       </c>
@@ -14838,7 +15629,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1833</v>
       </c>
@@ -14852,7 +15643,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1836</v>
       </c>
@@ -14866,7 +15657,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1839</v>
       </c>
@@ -14880,7 +15671,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1842</v>
       </c>
@@ -14894,7 +15685,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1845</v>
       </c>
@@ -14908,7 +15699,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1848</v>
       </c>
@@ -14922,7 +15713,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1851</v>
       </c>
@@ -14936,7 +15727,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1854</v>
       </c>
@@ -14950,7 +15741,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1857</v>
       </c>
@@ -14964,7 +15755,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1860</v>
       </c>
@@ -14978,7 +15769,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1863</v>
       </c>
@@ -14992,7 +15783,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1866</v>
       </c>
@@ -15006,7 +15797,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1869</v>
       </c>
@@ -15020,7 +15811,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1872</v>
       </c>
@@ -15034,7 +15825,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1875</v>
       </c>
@@ -15048,7 +15839,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1878</v>
       </c>
@@ -15062,7 +15853,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1881</v>
       </c>
@@ -15076,7 +15867,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1884</v>
       </c>
@@ -15090,7 +15881,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1887</v>
       </c>
@@ -15101,7 +15892,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1890</v>
       </c>
@@ -15112,7 +15903,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1893</v>
       </c>
@@ -15123,7 +15914,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1896</v>
       </c>
@@ -15134,7 +15925,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1899</v>
       </c>
@@ -15145,7 +15936,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1902</v>
       </c>
@@ -15156,7 +15947,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1905</v>
       </c>
@@ -15167,7 +15958,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1908</v>
       </c>
@@ -15178,7 +15969,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1911</v>
       </c>
@@ -15189,7 +15980,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1914</v>
       </c>
@@ -15200,7 +15991,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1917</v>
       </c>
@@ -15211,7 +16002,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1920</v>
       </c>
@@ -15222,7 +16013,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1923</v>
       </c>
@@ -15236,7 +16027,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1926</v>
       </c>
@@ -15250,7 +16041,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1929</v>
       </c>
@@ -15261,7 +16052,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1932</v>
       </c>
@@ -15275,7 +16066,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1935</v>
       </c>
@@ -15290,11 +16081,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B667">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="B458:B667 B3:B456">
+    <cfRule type="containsBlanks" dxfId="35" priority="1">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Matt_Work/BiGG ID Additions/2015_06_11_rxns.xlsx
+++ b/Matt_Work/BiGG ID Additions/2015_06_11_rxns.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="2083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="2096">
   <si>
     <t>rxn02483_c0</t>
   </si>
@@ -5962,9 +5962,6 @@
     <t>Glycerolipid and Glycerophospholipid Metabolism (Bacteria)</t>
   </si>
   <si>
-    <t>Heme/Siroheme Biosynthesis</t>
-  </si>
-  <si>
     <t>Glycolysis and Gluconeogenesis</t>
   </si>
   <si>
@@ -6121,9 +6118,6 @@
     <t>Sucrose Metabolism; Teichuronic Acid Biosynthesis</t>
   </si>
   <si>
-    <t>tRNA Aminoacylation; Heme/Siroheme Biosynthesis</t>
-  </si>
-  <si>
     <t>cAMP Signaling in Bacteria; Purine Conversions</t>
   </si>
   <si>
@@ -6266,6 +6260,51 @@
   </si>
   <si>
     <t>Chorismate Synthesis; Phenylalanine Synthesis</t>
+  </si>
+  <si>
+    <t>Glutathione: Biosynthesis and gamma-Glutamyl Cycle</t>
+  </si>
+  <si>
+    <t>dTDP-Rhamnose Synthesis</t>
+  </si>
+  <si>
+    <t>Serine Biosynthesis; Glycine Biosynthesis; Folate Biosynthesis</t>
+  </si>
+  <si>
+    <t>Coenzyme B12 Synthesis</t>
+  </si>
+  <si>
+    <t>Glycine and Serine Utilization; Serine Biosynthesis</t>
+  </si>
+  <si>
+    <t>HPr Catabolite Repression System</t>
+  </si>
+  <si>
+    <t>Polyamine Metabnolism; Arginine and Ornithine Degradation</t>
+  </si>
+  <si>
+    <t>Non-Growth Associated Maintenance</t>
+  </si>
+  <si>
+    <t>Hydroxyaromatic Decarboxylase Family</t>
+  </si>
+  <si>
+    <t>Heme and Siroheme Biosynthesis</t>
+  </si>
+  <si>
+    <t>tRNA Aminoacylation; Heme and Siroheme Biosynthesis</t>
+  </si>
+  <si>
+    <t>Glycolate, Glyoxylate Interconversions</t>
+  </si>
+  <si>
+    <t>Serine-Glyoxylate Cycle</t>
+  </si>
+  <si>
+    <t>Methylglyoxal Metabolism</t>
+  </si>
+  <si>
+    <t>Colanic Acid Biosynthesis</t>
   </si>
 </sst>
 </file>
@@ -6322,98 +6361,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -6910,8 +6858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E667"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
-      <selection activeCell="B351" sqref="B351"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B578" sqref="B578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7238,7 +7186,7 @@
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>1981</v>
+        <v>2090</v>
       </c>
       <c r="D23" t="s">
         <v>62</v>
@@ -7252,7 +7200,7 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
@@ -7294,7 +7242,7 @@
         <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D27" t="s">
         <v>74</v>
@@ -7336,7 +7284,7 @@
         <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D30" t="s">
         <v>83</v>
@@ -7378,7 +7326,7 @@
         <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D33" t="s">
         <v>92</v>
@@ -7392,7 +7340,7 @@
         <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D34" t="s">
         <v>95</v>
@@ -7406,7 +7354,7 @@
         <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D35" t="s">
         <v>98</v>
@@ -7420,7 +7368,7 @@
         <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D36" t="s">
         <v>101</v>
@@ -7434,7 +7382,7 @@
         <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D37" t="s">
         <v>104</v>
@@ -7504,7 +7452,7 @@
         <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D42" t="s">
         <v>119</v>
@@ -7532,7 +7480,7 @@
         <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D44" t="s">
         <v>125</v>
@@ -7560,7 +7508,7 @@
         <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D46" t="s">
         <v>131</v>
@@ -7588,7 +7536,7 @@
         <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D48" t="s">
         <v>137</v>
@@ -7602,7 +7550,7 @@
         <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D49" t="s">
         <v>140</v>
@@ -7658,7 +7606,7 @@
         <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D53" t="s">
         <v>151</v>
@@ -7672,7 +7620,7 @@
         <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D54" t="s">
         <v>154</v>
@@ -7714,7 +7662,7 @@
         <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D57" t="s">
         <v>163</v>
@@ -7728,7 +7676,7 @@
         <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -7742,7 +7690,7 @@
         <v>166</v>
       </c>
       <c r="B59" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D59" t="s">
         <v>168</v>
@@ -7798,7 +7746,7 @@
         <v>178</v>
       </c>
       <c r="B63" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D63" t="s">
         <v>180</v>
@@ -7826,7 +7774,7 @@
         <v>184</v>
       </c>
       <c r="B65" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D65" t="s">
         <v>1952</v>
@@ -7854,7 +7802,7 @@
         <v>187</v>
       </c>
       <c r="B67" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D67" t="s">
         <v>189</v>
@@ -7882,7 +7830,7 @@
         <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D69" t="s">
         <v>194</v>
@@ -7896,7 +7844,7 @@
         <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D70" t="s">
         <v>197</v>
@@ -7924,7 +7872,7 @@
         <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D72" t="s">
         <v>203</v>
@@ -7938,7 +7886,7 @@
         <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D73" t="s">
         <v>206</v>
@@ -7952,7 +7900,7 @@
         <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D74" t="s">
         <v>208</v>
@@ -7966,7 +7914,7 @@
         <v>209</v>
       </c>
       <c r="B75" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D75" t="s">
         <v>211</v>
@@ -7980,7 +7928,7 @@
         <v>212</v>
       </c>
       <c r="B76" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D76" t="s">
         <v>214</v>
@@ -7994,7 +7942,7 @@
         <v>215</v>
       </c>
       <c r="B77" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D77" t="s">
         <v>217</v>
@@ -8008,7 +7956,7 @@
         <v>218</v>
       </c>
       <c r="B78" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D78" t="s">
         <v>220</v>
@@ -8050,7 +7998,7 @@
         <v>227</v>
       </c>
       <c r="B81" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D81" t="s">
         <v>229</v>
@@ -8078,7 +8026,7 @@
         <v>233</v>
       </c>
       <c r="B83" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D83" t="s">
         <v>235</v>
@@ -8120,7 +8068,7 @@
         <v>240</v>
       </c>
       <c r="B86" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D86" t="s">
         <v>241</v>
@@ -8148,7 +8096,7 @@
         <v>245</v>
       </c>
       <c r="B88" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D88" t="s">
         <v>247</v>
@@ -8162,7 +8110,7 @@
         <v>248</v>
       </c>
       <c r="B89" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D89" t="s">
         <v>250</v>
@@ -8218,7 +8166,7 @@
         <v>260</v>
       </c>
       <c r="B93" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D93" t="s">
         <v>262</v>
@@ -8246,7 +8194,7 @@
         <v>266</v>
       </c>
       <c r="B95" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D95" t="s">
         <v>268</v>
@@ -8260,7 +8208,7 @@
         <v>269</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D96" t="s">
         <v>271</v>
@@ -8274,7 +8222,7 @@
         <v>272</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D97" t="s">
         <v>273</v>
@@ -8288,7 +8236,7 @@
         <v>274</v>
       </c>
       <c r="B98" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D98" t="s">
         <v>276</v>
@@ -8316,7 +8264,7 @@
         <v>280</v>
       </c>
       <c r="B100" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D100" t="s">
         <v>282</v>
@@ -8344,7 +8292,7 @@
         <v>286</v>
       </c>
       <c r="B102" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D102" t="s">
         <v>287</v>
@@ -8386,7 +8334,7 @@
         <v>294</v>
       </c>
       <c r="B105" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D105" t="s">
         <v>296</v>
@@ -8414,7 +8362,7 @@
         <v>300</v>
       </c>
       <c r="B107" t="s">
-        <v>1981</v>
+        <v>2090</v>
       </c>
       <c r="D107" t="s">
         <v>302</v>
@@ -8442,7 +8390,7 @@
         <v>306</v>
       </c>
       <c r="B109" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D109" t="s">
         <v>308</v>
@@ -8484,7 +8432,7 @@
         <v>315</v>
       </c>
       <c r="B112" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D112" t="s">
         <v>317</v>
@@ -8498,7 +8446,7 @@
         <v>318</v>
       </c>
       <c r="B113" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D113" t="s">
         <v>319</v>
@@ -8512,7 +8460,7 @@
         <v>320</v>
       </c>
       <c r="B114" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D114" t="s">
         <v>322</v>
@@ -8526,7 +8474,7 @@
         <v>323</v>
       </c>
       <c r="B115" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D115" t="s">
         <v>324</v>
@@ -8554,7 +8502,7 @@
         <v>328</v>
       </c>
       <c r="B117" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D117" t="s">
         <v>330</v>
@@ -8582,7 +8530,7 @@
         <v>334</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D119" t="s">
         <v>336</v>
@@ -8596,7 +8544,7 @@
         <v>337</v>
       </c>
       <c r="B120" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D120" t="s">
         <v>339</v>
@@ -8610,7 +8558,7 @@
         <v>340</v>
       </c>
       <c r="B121" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D121" t="s">
         <v>342</v>
@@ -8638,7 +8586,7 @@
         <v>346</v>
       </c>
       <c r="B123" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D123" t="s">
         <v>347</v>
@@ -8680,7 +8628,7 @@
         <v>354</v>
       </c>
       <c r="B126" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D126" t="s">
         <v>356</v>
@@ -8694,7 +8642,7 @@
         <v>357</v>
       </c>
       <c r="B127" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D127" t="s">
         <v>359</v>
@@ -8736,7 +8684,7 @@
         <v>366</v>
       </c>
       <c r="B130" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D130" t="s">
         <v>368</v>
@@ -8750,7 +8698,7 @@
         <v>369</v>
       </c>
       <c r="B131" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D131" t="s">
         <v>371</v>
@@ -8764,7 +8712,7 @@
         <v>372</v>
       </c>
       <c r="B132" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D132" t="s">
         <v>374</v>
@@ -8778,7 +8726,7 @@
         <v>375</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D133" t="s">
         <v>377</v>
@@ -8792,7 +8740,7 @@
         <v>378</v>
       </c>
       <c r="B134" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D134" t="s">
         <v>380</v>
@@ -8806,7 +8754,7 @@
         <v>381</v>
       </c>
       <c r="B135" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D135" t="s">
         <v>383</v>
@@ -8834,7 +8782,7 @@
         <v>386</v>
       </c>
       <c r="B137" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D137" t="s">
         <v>387</v>
@@ -8848,7 +8796,7 @@
         <v>388</v>
       </c>
       <c r="B138" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D138" t="s">
         <v>390</v>
@@ -8862,7 +8810,7 @@
         <v>391</v>
       </c>
       <c r="B139" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D139" t="s">
         <v>392</v>
@@ -8890,7 +8838,7 @@
         <v>395</v>
       </c>
       <c r="B141" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D141" t="s">
         <v>397</v>
@@ -8932,7 +8880,7 @@
         <v>404</v>
       </c>
       <c r="B144" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D144" t="s">
         <v>406</v>
@@ -8974,7 +8922,7 @@
         <v>413</v>
       </c>
       <c r="B147" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D147" t="s">
         <v>415</v>
@@ -8988,7 +8936,7 @@
         <v>416</v>
       </c>
       <c r="B148" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D148" t="s">
         <v>418</v>
@@ -9002,7 +8950,7 @@
         <v>419</v>
       </c>
       <c r="B149" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D149" t="s">
         <v>421</v>
@@ -9016,7 +8964,7 @@
         <v>422</v>
       </c>
       <c r="B150" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D150" t="s">
         <v>424</v>
@@ -9058,7 +9006,7 @@
         <v>431</v>
       </c>
       <c r="B153" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D153" t="s">
         <v>433</v>
@@ -9086,7 +9034,7 @@
         <v>437</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D155" t="s">
         <v>439</v>
@@ -9114,7 +9062,7 @@
         <v>442</v>
       </c>
       <c r="B157" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D157" t="s">
         <v>444</v>
@@ -9142,7 +9090,7 @@
         <v>448</v>
       </c>
       <c r="B159" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D159" t="s">
         <v>450</v>
@@ -9212,7 +9160,7 @@
         <v>462</v>
       </c>
       <c r="B164" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D164" t="s">
         <v>464</v>
@@ -9226,7 +9174,7 @@
         <v>465</v>
       </c>
       <c r="B165" t="s">
-        <v>1981</v>
+        <v>2090</v>
       </c>
       <c r="D165" t="s">
         <v>466</v>
@@ -9254,7 +9202,7 @@
         <v>470</v>
       </c>
       <c r="B167" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D167" t="s">
         <v>472</v>
@@ -9268,7 +9216,7 @@
         <v>473</v>
       </c>
       <c r="B168" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D168" t="s">
         <v>475</v>
@@ -9282,7 +9230,7 @@
         <v>476</v>
       </c>
       <c r="B169" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D169" t="s">
         <v>478</v>
@@ -9296,7 +9244,7 @@
         <v>479</v>
       </c>
       <c r="B170" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D170" t="s">
         <v>481</v>
@@ -9310,7 +9258,7 @@
         <v>482</v>
       </c>
       <c r="B171" t="s">
-        <v>1981</v>
+        <v>2090</v>
       </c>
       <c r="D171" t="s">
         <v>484</v>
@@ -9324,7 +9272,7 @@
         <v>485</v>
       </c>
       <c r="B172" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D172" t="s">
         <v>487</v>
@@ -9366,7 +9314,7 @@
         <v>494</v>
       </c>
       <c r="B175" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D175" t="s">
         <v>496</v>
@@ -9380,7 +9328,7 @@
         <v>497</v>
       </c>
       <c r="B176" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D176" t="s">
         <v>499</v>
@@ -9408,7 +9356,7 @@
         <v>503</v>
       </c>
       <c r="B178" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D178" t="s">
         <v>505</v>
@@ -9422,7 +9370,7 @@
         <v>506</v>
       </c>
       <c r="B179" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D179" t="s">
         <v>508</v>
@@ -9436,7 +9384,7 @@
         <v>509</v>
       </c>
       <c r="B180" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D180" t="s">
         <v>511</v>
@@ -9464,7 +9412,7 @@
         <v>515</v>
       </c>
       <c r="B182" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D182" t="s">
         <v>517</v>
@@ -9492,7 +9440,7 @@
         <v>521</v>
       </c>
       <c r="B184" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D184" t="s">
         <v>523</v>
@@ -9520,7 +9468,7 @@
         <v>527</v>
       </c>
       <c r="B186" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D186" t="s">
         <v>529</v>
@@ -9548,7 +9496,7 @@
         <v>533</v>
       </c>
       <c r="B188" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D188" t="s">
         <v>535</v>
@@ -9562,7 +9510,7 @@
         <v>536</v>
       </c>
       <c r="B189" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D189" t="s">
         <v>537</v>
@@ -9576,7 +9524,7 @@
         <v>538</v>
       </c>
       <c r="B190" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D190" t="s">
         <v>539</v>
@@ -9590,7 +9538,7 @@
         <v>540</v>
       </c>
       <c r="B191" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D191" t="s">
         <v>542</v>
@@ -9604,7 +9552,7 @@
         <v>543</v>
       </c>
       <c r="B192" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D192" t="s">
         <v>545</v>
@@ -9674,7 +9622,7 @@
         <v>558</v>
       </c>
       <c r="B197" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D197" t="s">
         <v>560</v>
@@ -9688,7 +9636,7 @@
         <v>561</v>
       </c>
       <c r="B198" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D198" t="s">
         <v>563</v>
@@ -9730,7 +9678,7 @@
         <v>570</v>
       </c>
       <c r="B201" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D201" t="s">
         <v>572</v>
@@ -9744,7 +9692,7 @@
         <v>573</v>
       </c>
       <c r="B202" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D202" t="s">
         <v>575</v>
@@ -9758,7 +9706,7 @@
         <v>576</v>
       </c>
       <c r="B203" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D203" t="s">
         <v>578</v>
@@ -9772,7 +9720,7 @@
         <v>579</v>
       </c>
       <c r="B204" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D204" t="s">
         <v>581</v>
@@ -9786,7 +9734,7 @@
         <v>582</v>
       </c>
       <c r="B205" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D205" t="s">
         <v>584</v>
@@ -9828,7 +9776,7 @@
         <v>591</v>
       </c>
       <c r="B208" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D208" t="s">
         <v>593</v>
@@ -9842,7 +9790,7 @@
         <v>594</v>
       </c>
       <c r="B209" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D209" t="s">
         <v>595</v>
@@ -9884,7 +9832,7 @@
         <v>602</v>
       </c>
       <c r="B212" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="D212" t="s">
         <v>604</v>
@@ -9926,7 +9874,7 @@
         <v>610</v>
       </c>
       <c r="B215" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D215" t="s">
         <v>612</v>
@@ -9940,7 +9888,7 @@
         <v>613</v>
       </c>
       <c r="B216" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D216" t="s">
         <v>615</v>
@@ -9996,7 +9944,7 @@
         <v>625</v>
       </c>
       <c r="B220" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D220" t="s">
         <v>627</v>
@@ -10052,7 +10000,7 @@
         <v>636</v>
       </c>
       <c r="B224" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D224" t="s">
         <v>638</v>
@@ -10080,7 +10028,7 @@
         <v>642</v>
       </c>
       <c r="B226" t="s">
-        <v>1981</v>
+        <v>2090</v>
       </c>
       <c r="D226" t="s">
         <v>644</v>
@@ -10108,7 +10056,7 @@
         <v>648</v>
       </c>
       <c r="B228" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D228" t="s">
         <v>650</v>
@@ -10178,7 +10126,7 @@
         <v>661</v>
       </c>
       <c r="B233" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D233" t="s">
         <v>663</v>
@@ -10206,7 +10154,7 @@
         <v>667</v>
       </c>
       <c r="B235" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D235" t="s">
         <v>669</v>
@@ -10220,7 +10168,7 @@
         <v>670</v>
       </c>
       <c r="B236" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D236" t="s">
         <v>672</v>
@@ -10234,7 +10182,7 @@
         <v>673</v>
       </c>
       <c r="B237" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D237" t="s">
         <v>675</v>
@@ -10276,7 +10224,7 @@
         <v>682</v>
       </c>
       <c r="B240" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D240" t="s">
         <v>684</v>
@@ -10304,7 +10252,7 @@
         <v>688</v>
       </c>
       <c r="B242" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D242" t="s">
         <v>690</v>
@@ -10318,7 +10266,7 @@
         <v>691</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D243" t="s">
         <v>692</v>
@@ -10332,7 +10280,7 @@
         <v>693</v>
       </c>
       <c r="B244" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D244" t="s">
         <v>695</v>
@@ -10360,7 +10308,7 @@
         <v>699</v>
       </c>
       <c r="B246" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D246" t="s">
         <v>701</v>
@@ -10374,7 +10322,7 @@
         <v>702</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D247" t="s">
         <v>704</v>
@@ -10430,7 +10378,7 @@
         <v>714</v>
       </c>
       <c r="B251" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D251" t="s">
         <v>716</v>
@@ -10444,7 +10392,7 @@
         <v>717</v>
       </c>
       <c r="B252" t="s">
-        <v>1981</v>
+        <v>2090</v>
       </c>
       <c r="D252" t="s">
         <v>719</v>
@@ -10472,7 +10420,7 @@
         <v>723</v>
       </c>
       <c r="B254" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D254" t="s">
         <v>725</v>
@@ -10486,7 +10434,7 @@
         <v>726</v>
       </c>
       <c r="B255" t="s">
-        <v>2034</v>
+        <v>2091</v>
       </c>
       <c r="D255" t="s">
         <v>728</v>
@@ -10514,7 +10462,7 @@
         <v>732</v>
       </c>
       <c r="B257" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D257" t="s">
         <v>733</v>
@@ -10528,7 +10476,7 @@
         <v>734</v>
       </c>
       <c r="B258" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D258" t="s">
         <v>736</v>
@@ -10542,7 +10490,7 @@
         <v>737</v>
       </c>
       <c r="B259" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D259" t="s">
         <v>739</v>
@@ -10556,7 +10504,7 @@
         <v>740</v>
       </c>
       <c r="B260" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D260" t="s">
         <v>742</v>
@@ -10584,7 +10532,7 @@
         <v>746</v>
       </c>
       <c r="B262" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D262" t="s">
         <v>748</v>
@@ -10598,7 +10546,7 @@
         <v>749</v>
       </c>
       <c r="B263" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D263" t="s">
         <v>751</v>
@@ -10682,7 +10630,7 @@
         <v>767</v>
       </c>
       <c r="B269" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D269" t="s">
         <v>769</v>
@@ -10696,7 +10644,7 @@
         <v>770</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="D270" t="s">
         <v>772</v>
@@ -10738,7 +10686,7 @@
         <v>779</v>
       </c>
       <c r="B273" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D273" t="s">
         <v>781</v>
@@ -10752,7 +10700,7 @@
         <v>782</v>
       </c>
       <c r="B274" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="D274" t="s">
         <v>784</v>
@@ -10766,7 +10714,7 @@
         <v>785</v>
       </c>
       <c r="B275" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D275" t="s">
         <v>787</v>
@@ -10780,7 +10728,7 @@
         <v>788</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="D276" t="s">
         <v>790</v>
@@ -10794,7 +10742,7 @@
         <v>791</v>
       </c>
       <c r="B277" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D277" t="s">
         <v>792</v>
@@ -10808,7 +10756,7 @@
         <v>793</v>
       </c>
       <c r="B278" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="D278" t="s">
         <v>795</v>
@@ -10822,7 +10770,7 @@
         <v>796</v>
       </c>
       <c r="B279" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D279" t="s">
         <v>797</v>
@@ -10836,7 +10784,7 @@
         <v>798</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="D280" t="s">
         <v>800</v>
@@ -10850,7 +10798,7 @@
         <v>801</v>
       </c>
       <c r="B281" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="D281" t="s">
         <v>803</v>
@@ -10864,7 +10812,7 @@
         <v>804</v>
       </c>
       <c r="B282" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D282" t="s">
         <v>806</v>
@@ -10878,7 +10826,7 @@
         <v>807</v>
       </c>
       <c r="B283" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="D283" t="s">
         <v>809</v>
@@ -10892,7 +10840,7 @@
         <v>810</v>
       </c>
       <c r="B284" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D284" t="s">
         <v>812</v>
@@ -10906,7 +10854,7 @@
         <v>813</v>
       </c>
       <c r="B285" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D285" t="s">
         <v>814</v>
@@ -10920,7 +10868,7 @@
         <v>815</v>
       </c>
       <c r="B286" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D286" t="s">
         <v>817</v>
@@ -10934,7 +10882,7 @@
         <v>818</v>
       </c>
       <c r="B287" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="D287" t="s">
         <v>820</v>
@@ -10948,7 +10896,7 @@
         <v>821</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="D288" t="s">
         <v>822</v>
@@ -10962,7 +10910,7 @@
         <v>823</v>
       </c>
       <c r="B289" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="D289" t="s">
         <v>825</v>
@@ -10990,7 +10938,7 @@
         <v>829</v>
       </c>
       <c r="B291" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="D291" t="s">
         <v>831</v>
@@ -11018,7 +10966,7 @@
         <v>835</v>
       </c>
       <c r="B293" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D293" t="s">
         <v>837</v>
@@ -11088,7 +11036,7 @@
         <v>847</v>
       </c>
       <c r="B298" t="s">
-        <v>1981</v>
+        <v>2090</v>
       </c>
       <c r="D298" t="s">
         <v>849</v>
@@ -11130,7 +11078,7 @@
         <v>856</v>
       </c>
       <c r="B301" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D301" t="s">
         <v>858</v>
@@ -11144,7 +11092,7 @@
         <v>859</v>
       </c>
       <c r="B302" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D302" t="s">
         <v>861</v>
@@ -11172,7 +11120,7 @@
         <v>865</v>
       </c>
       <c r="B304" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="D304" t="s">
         <v>867</v>
@@ -11200,7 +11148,7 @@
         <v>871</v>
       </c>
       <c r="B306" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D306" t="s">
         <v>873</v>
@@ -11214,7 +11162,7 @@
         <v>874</v>
       </c>
       <c r="B307" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D307" t="s">
         <v>876</v>
@@ -11256,7 +11204,7 @@
         <v>881</v>
       </c>
       <c r="B310" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="D310" t="s">
         <v>883</v>
@@ -11270,7 +11218,7 @@
         <v>884</v>
       </c>
       <c r="B311" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D311" t="s">
         <v>885</v>
@@ -11284,7 +11232,7 @@
         <v>886</v>
       </c>
       <c r="B312" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D312" t="s">
         <v>888</v>
@@ -11298,7 +11246,7 @@
         <v>889</v>
       </c>
       <c r="B313" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D313" t="s">
         <v>891</v>
@@ -11312,7 +11260,7 @@
         <v>892</v>
       </c>
       <c r="B314" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D314" t="s">
         <v>894</v>
@@ -11326,7 +11274,7 @@
         <v>895</v>
       </c>
       <c r="B315" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="D315" t="s">
         <v>897</v>
@@ -11368,7 +11316,7 @@
         <v>904</v>
       </c>
       <c r="B318" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D318" t="s">
         <v>906</v>
@@ -11382,7 +11330,7 @@
         <v>907</v>
       </c>
       <c r="B319" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D319" t="s">
         <v>909</v>
@@ -11410,7 +11358,7 @@
         <v>913</v>
       </c>
       <c r="B321" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="D321" t="s">
         <v>915</v>
@@ -11452,7 +11400,7 @@
         <v>922</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D324" t="s">
         <v>924</v>
@@ -11466,7 +11414,7 @@
         <v>925</v>
       </c>
       <c r="B325" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D325" t="s">
         <v>927</v>
@@ -11480,7 +11428,7 @@
         <v>928</v>
       </c>
       <c r="B326" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="D326" t="s">
         <v>930</v>
@@ -11494,7 +11442,7 @@
         <v>931</v>
       </c>
       <c r="B327" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D327" t="s">
         <v>933</v>
@@ -11550,7 +11498,7 @@
         <v>943</v>
       </c>
       <c r="B331" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D331" t="s">
         <v>945</v>
@@ -11578,7 +11526,7 @@
         <v>949</v>
       </c>
       <c r="B333" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D333" t="s">
         <v>950</v>
@@ -11606,7 +11554,7 @@
         <v>954</v>
       </c>
       <c r="B335" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D335" t="s">
         <v>956</v>
@@ -11648,7 +11596,7 @@
         <v>963</v>
       </c>
       <c r="B338" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D338" t="s">
         <v>965</v>
@@ -11662,7 +11610,7 @@
         <v>966</v>
       </c>
       <c r="B339" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D339" t="s">
         <v>968</v>
@@ -11704,7 +11652,7 @@
         <v>974</v>
       </c>
       <c r="B342" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="D342" t="s">
         <v>976</v>
@@ -11718,7 +11666,7 @@
         <v>977</v>
       </c>
       <c r="B343" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="D343" t="s">
         <v>979</v>
@@ -11760,7 +11708,7 @@
         <v>986</v>
       </c>
       <c r="B346" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D346" t="s">
         <v>987</v>
@@ -11774,7 +11722,7 @@
         <v>988</v>
       </c>
       <c r="B347" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D347" t="s">
         <v>990</v>
@@ -11802,7 +11750,7 @@
         <v>994</v>
       </c>
       <c r="B349" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D349" t="s">
         <v>996</v>
@@ -11816,7 +11764,7 @@
         <v>997</v>
       </c>
       <c r="B350" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D350" t="s">
         <v>999</v>
@@ -11829,6 +11777,9 @@
       <c r="A351" t="s">
         <v>1000</v>
       </c>
+      <c r="B351" t="s">
+        <v>1949</v>
+      </c>
       <c r="D351" t="s">
         <v>1002</v>
       </c>
@@ -11840,6 +11791,9 @@
       <c r="A352" t="s">
         <v>1003</v>
       </c>
+      <c r="B352" t="s">
+        <v>1981</v>
+      </c>
       <c r="D352" t="s">
         <v>1005</v>
       </c>
@@ -11851,6 +11805,9 @@
       <c r="A353" t="s">
         <v>1006</v>
       </c>
+      <c r="B353" t="s">
+        <v>1999</v>
+      </c>
       <c r="D353" t="s">
         <v>1008</v>
       </c>
@@ -11862,6 +11819,9 @@
       <c r="A354" t="s">
         <v>1009</v>
       </c>
+      <c r="B354" t="s">
+        <v>1955</v>
+      </c>
       <c r="D354" t="s">
         <v>1011</v>
       </c>
@@ -11874,7 +11834,7 @@
         <v>1012</v>
       </c>
       <c r="B355" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="D355" t="s">
         <v>1014</v>
@@ -11887,6 +11847,9 @@
       <c r="A356" t="s">
         <v>1015</v>
       </c>
+      <c r="B356" t="s">
+        <v>2007</v>
+      </c>
       <c r="D356" t="s">
         <v>1017</v>
       </c>
@@ -11898,6 +11861,9 @@
       <c r="A357" t="s">
         <v>1018</v>
       </c>
+      <c r="B357" t="s">
+        <v>2000</v>
+      </c>
       <c r="D357" t="s">
         <v>1020</v>
       </c>
@@ -11924,7 +11890,7 @@
         <v>1024</v>
       </c>
       <c r="B359" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D359" t="s">
         <v>1026</v>
@@ -11937,6 +11903,9 @@
       <c r="A360" t="s">
         <v>1027</v>
       </c>
+      <c r="B360" t="s">
+        <v>2000</v>
+      </c>
       <c r="D360" t="s">
         <v>1029</v>
       </c>
@@ -11948,6 +11917,9 @@
       <c r="A361" t="s">
         <v>1030</v>
       </c>
+      <c r="B361" t="s">
+        <v>2084</v>
+      </c>
       <c r="D361" t="s">
         <v>1032</v>
       </c>
@@ -11960,7 +11932,7 @@
         <v>1033</v>
       </c>
       <c r="B362" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D362" t="s">
         <v>1034</v>
@@ -11973,6 +11945,9 @@
       <c r="A363" t="s">
         <v>1035</v>
       </c>
+      <c r="B363" t="s">
+        <v>2085</v>
+      </c>
       <c r="D363" t="s">
         <v>1037</v>
       </c>
@@ -11984,6 +11959,9 @@
       <c r="A364" t="s">
         <v>1038</v>
       </c>
+      <c r="B364" t="s">
+        <v>2086</v>
+      </c>
       <c r="D364" t="s">
         <v>1040</v>
       </c>
@@ -11995,6 +11973,9 @@
       <c r="A365" t="s">
         <v>1041</v>
       </c>
+      <c r="B365" t="s">
+        <v>2030</v>
+      </c>
       <c r="D365" t="s">
         <v>1042</v>
       </c>
@@ -12006,6 +11987,9 @@
       <c r="A366" t="s">
         <v>1043</v>
       </c>
+      <c r="B366" t="s">
+        <v>1973</v>
+      </c>
       <c r="D366" t="s">
         <v>1045</v>
       </c>
@@ -12017,6 +12001,9 @@
       <c r="A367" t="s">
         <v>1046</v>
       </c>
+      <c r="B367" s="1" t="s">
+        <v>1980</v>
+      </c>
       <c r="D367" t="s">
         <v>1048</v>
       </c>
@@ -12028,6 +12015,9 @@
       <c r="A368" t="s">
         <v>1049</v>
       </c>
+      <c r="B368" t="s">
+        <v>2087</v>
+      </c>
       <c r="D368" t="s">
         <v>1051</v>
       </c>
@@ -12067,6 +12057,9 @@
       <c r="A371" t="s">
         <v>1058</v>
       </c>
+      <c r="B371" s="1" t="s">
+        <v>2088</v>
+      </c>
       <c r="D371" t="s">
         <v>1060</v>
       </c>
@@ -12078,6 +12071,9 @@
       <c r="A372" t="s">
         <v>1061</v>
       </c>
+      <c r="B372" s="1" t="s">
+        <v>2021</v>
+      </c>
       <c r="D372" t="s">
         <v>1063</v>
       </c>
@@ -12117,6 +12113,9 @@
       <c r="A375" t="s">
         <v>1070</v>
       </c>
+      <c r="B375" s="1" t="s">
+        <v>2021</v>
+      </c>
       <c r="D375" t="s">
         <v>1072</v>
       </c>
@@ -12128,6 +12127,9 @@
       <c r="A376" t="s">
         <v>1073</v>
       </c>
+      <c r="B376" s="1" t="s">
+        <v>1974</v>
+      </c>
       <c r="D376" t="s">
         <v>1075</v>
       </c>
@@ -12139,6 +12141,9 @@
       <c r="A377" t="s">
         <v>1076</v>
       </c>
+      <c r="B377" s="2" t="s">
+        <v>2089</v>
+      </c>
       <c r="D377" t="s">
         <v>1078</v>
       </c>
@@ -12150,6 +12155,9 @@
       <c r="A378" t="s">
         <v>1079</v>
       </c>
+      <c r="B378" s="1" t="s">
+        <v>2059</v>
+      </c>
       <c r="D378" t="s">
         <v>1081</v>
       </c>
@@ -12161,6 +12169,9 @@
       <c r="A379" t="s">
         <v>1082</v>
       </c>
+      <c r="B379" s="1" t="s">
+        <v>2054</v>
+      </c>
       <c r="D379" t="s">
         <v>1084</v>
       </c>
@@ -12186,6 +12197,9 @@
       <c r="A381" t="s">
         <v>1088</v>
       </c>
+      <c r="B381" s="2" t="s">
+        <v>2061</v>
+      </c>
       <c r="D381" t="s">
         <v>1090</v>
       </c>
@@ -12211,6 +12225,9 @@
       <c r="A383" t="s">
         <v>1094</v>
       </c>
+      <c r="B383" s="2" t="s">
+        <v>2061</v>
+      </c>
       <c r="D383" t="s">
         <v>1096</v>
       </c>
@@ -12222,6 +12239,9 @@
       <c r="A384" t="s">
         <v>1097</v>
       </c>
+      <c r="B384" t="s">
+        <v>2090</v>
+      </c>
       <c r="D384" t="s">
         <v>1099</v>
       </c>
@@ -12247,6 +12267,9 @@
       <c r="A386" t="s">
         <v>1103</v>
       </c>
+      <c r="B386" s="1" t="s">
+        <v>2021</v>
+      </c>
       <c r="D386" t="s">
         <v>1105</v>
       </c>
@@ -12258,6 +12281,9 @@
       <c r="A387" t="s">
         <v>1106</v>
       </c>
+      <c r="B387" s="1" t="s">
+        <v>2021</v>
+      </c>
       <c r="D387" t="s">
         <v>1108</v>
       </c>
@@ -12283,6 +12309,9 @@
       <c r="A389" t="s">
         <v>1112</v>
       </c>
+      <c r="B389" s="2" t="s">
+        <v>2061</v>
+      </c>
       <c r="D389" t="s">
         <v>1114</v>
       </c>
@@ -12308,6 +12337,9 @@
       <c r="A391" t="s">
         <v>1118</v>
       </c>
+      <c r="B391" s="1" t="s">
+        <v>2083</v>
+      </c>
       <c r="D391" t="s">
         <v>1120</v>
       </c>
@@ -12333,6 +12365,9 @@
       <c r="A393" t="s">
         <v>1124</v>
       </c>
+      <c r="B393" t="s">
+        <v>2082</v>
+      </c>
       <c r="D393" t="s">
         <v>1126</v>
       </c>
@@ -12344,6 +12379,9 @@
       <c r="A394" t="s">
         <v>1127</v>
       </c>
+      <c r="B394" t="s">
+        <v>2001</v>
+      </c>
       <c r="D394" t="s">
         <v>1129</v>
       </c>
@@ -12355,6 +12393,9 @@
       <c r="A395" t="s">
         <v>1130</v>
       </c>
+      <c r="B395" t="s">
+        <v>2082</v>
+      </c>
       <c r="D395" t="s">
         <v>1132</v>
       </c>
@@ -12380,6 +12421,9 @@
       <c r="A397" t="s">
         <v>1136</v>
       </c>
+      <c r="B397" t="s">
+        <v>2061</v>
+      </c>
       <c r="D397" t="s">
         <v>1138</v>
       </c>
@@ -12391,6 +12435,9 @@
       <c r="A398" t="s">
         <v>1139</v>
       </c>
+      <c r="B398" t="s">
+        <v>2061</v>
+      </c>
       <c r="D398" t="s">
         <v>1141</v>
       </c>
@@ -12416,6 +12463,9 @@
       <c r="A400" t="s">
         <v>1145</v>
       </c>
+      <c r="B400" s="1" t="s">
+        <v>2025</v>
+      </c>
       <c r="D400" t="s">
         <v>1147</v>
       </c>
@@ -12427,6 +12477,9 @@
       <c r="A401" t="s">
         <v>1148</v>
       </c>
+      <c r="B401" s="1" t="s">
+        <v>2025</v>
+      </c>
       <c r="D401" t="s">
         <v>1150</v>
       </c>
@@ -12453,7 +12506,7 @@
         <v>1154</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D403" t="s">
         <v>1156</v>
@@ -12466,6 +12519,9 @@
       <c r="A404" t="s">
         <v>1157</v>
       </c>
+      <c r="B404" s="1" t="s">
+        <v>2021</v>
+      </c>
       <c r="D404" t="s">
         <v>1159</v>
       </c>
@@ -12478,7 +12534,7 @@
         <v>1160</v>
       </c>
       <c r="B405" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="D405" t="s">
         <v>1162</v>
@@ -12491,6 +12547,9 @@
       <c r="A406" t="s">
         <v>1163</v>
       </c>
+      <c r="B406" t="s">
+        <v>2081</v>
+      </c>
       <c r="D406" t="s">
         <v>1165</v>
       </c>
@@ -12516,6 +12575,9 @@
       <c r="A408" t="s">
         <v>1169</v>
       </c>
+      <c r="B408" t="s">
+        <v>1972</v>
+      </c>
       <c r="D408" t="s">
         <v>1171</v>
       </c>
@@ -12527,6 +12589,9 @@
       <c r="A409" t="s">
         <v>1172</v>
       </c>
+      <c r="B409" t="s">
+        <v>1977</v>
+      </c>
       <c r="D409" t="s">
         <v>1174</v>
       </c>
@@ -12539,7 +12604,7 @@
         <v>1175</v>
       </c>
       <c r="B410" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D410" t="s">
         <v>1177</v>
@@ -12552,6 +12617,9 @@
       <c r="A411" t="s">
         <v>1178</v>
       </c>
+      <c r="B411" t="s">
+        <v>2058</v>
+      </c>
       <c r="D411" t="s">
         <v>1180</v>
       </c>
@@ -12577,6 +12645,9 @@
       <c r="A413" t="s">
         <v>1184</v>
       </c>
+      <c r="B413" s="1" t="s">
+        <v>2021</v>
+      </c>
       <c r="D413" t="s">
         <v>1186</v>
       </c>
@@ -12602,6 +12673,9 @@
       <c r="A415" t="s">
         <v>1190</v>
       </c>
+      <c r="B415" t="s">
+        <v>2058</v>
+      </c>
       <c r="D415" t="s">
         <v>1192</v>
       </c>
@@ -12614,7 +12688,7 @@
         <v>1193</v>
       </c>
       <c r="B416" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="D416" t="s">
         <v>1195</v>
@@ -12628,7 +12702,7 @@
         <v>1196</v>
       </c>
       <c r="B417" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="D417" t="s">
         <v>1198</v>
@@ -12670,7 +12744,7 @@
         <v>1205</v>
       </c>
       <c r="B420" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D420" t="s">
         <v>1207</v>
@@ -12726,7 +12800,7 @@
         <v>1217</v>
       </c>
       <c r="B424" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D424" t="s">
         <v>1219</v>
@@ -12740,7 +12814,7 @@
         <v>1220</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D425" t="s">
         <v>1222</v>
@@ -12754,7 +12828,7 @@
         <v>1223</v>
       </c>
       <c r="B426" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D426" t="s">
         <v>1225</v>
@@ -12768,7 +12842,7 @@
         <v>1226</v>
       </c>
       <c r="B427" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="D427" t="s">
         <v>1228</v>
@@ -12782,7 +12856,7 @@
         <v>1229</v>
       </c>
       <c r="B428" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="D428" t="s">
         <v>1231</v>
@@ -12796,7 +12870,7 @@
         <v>1232</v>
       </c>
       <c r="B429" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D429" t="s">
         <v>1234</v>
@@ -12810,7 +12884,7 @@
         <v>1235</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="D430" t="s">
         <v>1237</v>
@@ -12838,7 +12912,7 @@
         <v>1241</v>
       </c>
       <c r="B432" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="D432" t="s">
         <v>1243</v>
@@ -12866,7 +12940,7 @@
         <v>1247</v>
       </c>
       <c r="B434" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="D434" t="s">
         <v>1249</v>
@@ -12894,7 +12968,7 @@
         <v>1253</v>
       </c>
       <c r="B436" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="D436" t="s">
         <v>1255</v>
@@ -12908,7 +12982,7 @@
         <v>1256</v>
       </c>
       <c r="B437" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D437" t="s">
         <v>1258</v>
@@ -12950,7 +13024,7 @@
         <v>1265</v>
       </c>
       <c r="B440" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D440" t="s">
         <v>1267</v>
@@ -12964,7 +13038,7 @@
         <v>1268</v>
       </c>
       <c r="B441" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D441" t="s">
         <v>1270</v>
@@ -12978,7 +13052,7 @@
         <v>1271</v>
       </c>
       <c r="B442" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D442" t="s">
         <v>1273</v>
@@ -12992,7 +13066,7 @@
         <v>1274</v>
       </c>
       <c r="B443" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D443" t="s">
         <v>1276</v>
@@ -13034,7 +13108,7 @@
         <v>1283</v>
       </c>
       <c r="B446" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="D446" t="s">
         <v>1285</v>
@@ -13048,7 +13122,7 @@
         <v>1286</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="D447" t="s">
         <v>1288</v>
@@ -13076,7 +13150,7 @@
         <v>1292</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="D449" t="s">
         <v>1294</v>
@@ -13090,7 +13164,7 @@
         <v>1295</v>
       </c>
       <c r="B450" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D450" t="s">
         <v>1297</v>
@@ -13104,7 +13178,7 @@
         <v>1298</v>
       </c>
       <c r="B451" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="D451" t="s">
         <v>1300</v>
@@ -13118,7 +13192,7 @@
         <v>1301</v>
       </c>
       <c r="B452" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D452" t="s">
         <v>1303</v>
@@ -13146,7 +13220,7 @@
         <v>1307</v>
       </c>
       <c r="B454" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="D454" t="s">
         <v>1309</v>
@@ -13188,7 +13262,7 @@
         <v>1316</v>
       </c>
       <c r="B457" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="D457" t="s">
         <v>1317</v>
@@ -13202,7 +13276,7 @@
         <v>1318</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D458" t="s">
         <v>1320</v>
@@ -13230,7 +13304,7 @@
         <v>1324</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="D460" t="s">
         <v>1326</v>
@@ -13286,7 +13360,7 @@
         <v>1336</v>
       </c>
       <c r="B464" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="D464" t="s">
         <v>1338</v>
@@ -13314,7 +13388,7 @@
         <v>1342</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D466" t="s">
         <v>1344</v>
@@ -13342,7 +13416,7 @@
         <v>1348</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D468" t="s">
         <v>1350</v>
@@ -13356,7 +13430,7 @@
         <v>1351</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D469" t="s">
         <v>1353</v>
@@ -13384,7 +13458,7 @@
         <v>1357</v>
       </c>
       <c r="B471" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D471" t="s">
         <v>1359</v>
@@ -13398,7 +13472,7 @@
         <v>1360</v>
       </c>
       <c r="B472" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="D472" t="s">
         <v>1362</v>
@@ -13412,7 +13486,7 @@
         <v>1363</v>
       </c>
       <c r="B473" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D473" t="s">
         <v>1365</v>
@@ -13426,7 +13500,7 @@
         <v>1366</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="D474" t="s">
         <v>1368</v>
@@ -13440,7 +13514,7 @@
         <v>1369</v>
       </c>
       <c r="B475" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="D475" t="s">
         <v>1371</v>
@@ -13454,7 +13528,7 @@
         <v>1372</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D476" t="s">
         <v>1374</v>
@@ -13468,7 +13542,7 @@
         <v>1375</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D477" t="s">
         <v>1377</v>
@@ -13482,7 +13556,7 @@
         <v>1378</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="D478" t="s">
         <v>1380</v>
@@ -13496,7 +13570,7 @@
         <v>1381</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D479" t="s">
         <v>1383</v>
@@ -13524,7 +13598,7 @@
         <v>1387</v>
       </c>
       <c r="B481" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="D481" t="s">
         <v>1389</v>
@@ -13552,7 +13626,7 @@
         <v>1393</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D483" t="s">
         <v>1395</v>
@@ -13566,7 +13640,7 @@
         <v>1396</v>
       </c>
       <c r="B484" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D484" t="s">
         <v>1398</v>
@@ -13580,7 +13654,7 @@
         <v>1399</v>
       </c>
       <c r="B485" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="D485" t="s">
         <v>1401</v>
@@ -13594,7 +13668,7 @@
         <v>1402</v>
       </c>
       <c r="B486" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="D486" t="s">
         <v>1404</v>
@@ -13608,7 +13682,7 @@
         <v>1405</v>
       </c>
       <c r="B487" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="D487" t="s">
         <v>1407</v>
@@ -13636,7 +13710,7 @@
         <v>1411</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D489" t="s">
         <v>1413</v>
@@ -13650,7 +13724,7 @@
         <v>1414</v>
       </c>
       <c r="B490" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D490" t="s">
         <v>1416</v>
@@ -13664,7 +13738,7 @@
         <v>1417</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="D491" t="s">
         <v>1419</v>
@@ -13678,7 +13752,7 @@
         <v>1420</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="D492" t="s">
         <v>1422</v>
@@ -13692,7 +13766,7 @@
         <v>1423</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>1425</v>
@@ -13706,7 +13780,7 @@
         <v>1426</v>
       </c>
       <c r="B494" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D494" t="s">
         <v>1428</v>
@@ -13720,7 +13794,7 @@
         <v>1429</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="D495" t="s">
         <v>1431</v>
@@ -13734,7 +13808,7 @@
         <v>1432</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D496" t="s">
         <v>1434</v>
@@ -13748,7 +13822,7 @@
         <v>1435</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="D497" t="s">
         <v>1437</v>
@@ -13762,7 +13836,7 @@
         <v>1438</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D498" t="s">
         <v>1439</v>
@@ -13776,7 +13850,7 @@
         <v>1440</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D499" t="s">
         <v>1442</v>
@@ -13790,7 +13864,7 @@
         <v>1443</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D500" t="s">
         <v>1445</v>
@@ -13804,7 +13878,7 @@
         <v>1446</v>
       </c>
       <c r="B501" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="D501" t="s">
         <v>1448</v>
@@ -13818,7 +13892,7 @@
         <v>1449</v>
       </c>
       <c r="B502" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D502" t="s">
         <v>1451</v>
@@ -13832,7 +13906,7 @@
         <v>1452</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D503" t="s">
         <v>1454</v>
@@ -13846,7 +13920,7 @@
         <v>1455</v>
       </c>
       <c r="B504" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="D504" t="s">
         <v>1457</v>
@@ -13860,7 +13934,7 @@
         <v>1458</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="D505" t="s">
         <v>1460</v>
@@ -13874,7 +13948,7 @@
         <v>1461</v>
       </c>
       <c r="B506" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D506" t="s">
         <v>1463</v>
@@ -13888,7 +13962,7 @@
         <v>1464</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="D507" t="s">
         <v>1466</v>
@@ -14546,7 +14620,7 @@
         <v>1602</v>
       </c>
       <c r="B554" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="D554" t="s">
         <v>1604</v>
@@ -14560,7 +14634,7 @@
         <v>1605</v>
       </c>
       <c r="B555" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="D555" t="s">
         <v>1607</v>
@@ -14574,7 +14648,7 @@
         <v>1608</v>
       </c>
       <c r="B556" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D556" t="s">
         <v>1610</v>
@@ -14630,7 +14704,7 @@
         <v>1620</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D560" t="s">
         <v>1622</v>
@@ -14644,7 +14718,7 @@
         <v>1623</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D561" t="s">
         <v>1625</v>
@@ -14658,7 +14732,7 @@
         <v>1626</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D562" t="s">
         <v>1628</v>
@@ -14672,7 +14746,7 @@
         <v>1629</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D563" t="s">
         <v>1631</v>
@@ -14686,7 +14760,7 @@
         <v>1632</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D564" t="s">
         <v>1634</v>
@@ -14700,7 +14774,7 @@
         <v>1635</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D565" t="s">
         <v>1637</v>
@@ -14714,7 +14788,7 @@
         <v>1638</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D566" t="s">
         <v>1640</v>
@@ -14728,7 +14802,7 @@
         <v>1641</v>
       </c>
       <c r="B567" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="D567" t="s">
         <v>1643</v>
@@ -14742,7 +14816,7 @@
         <v>1644</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="D568" t="s">
         <v>1646</v>
@@ -14784,7 +14858,7 @@
         <v>1653</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D571" t="s">
         <v>1655</v>
@@ -14854,7 +14928,7 @@
         <v>1668</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D576" t="s">
         <v>1670</v>
@@ -14867,6 +14941,9 @@
       <c r="A577" t="s">
         <v>1671</v>
       </c>
+      <c r="B577" t="s">
+        <v>2021</v>
+      </c>
       <c r="D577" t="s">
         <v>1673</v>
       </c>
@@ -14991,7 +15068,7 @@
         <v>1698</v>
       </c>
       <c r="B586" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="D586" t="s">
         <v>1699</v>
@@ -15505,6 +15582,9 @@
       <c r="A623" t="s">
         <v>1806</v>
       </c>
+      <c r="B623" t="s">
+        <v>1944</v>
+      </c>
       <c r="D623" t="s">
         <v>1807</v>
       </c>
@@ -15516,6 +15596,9 @@
       <c r="A624" t="s">
         <v>1808</v>
       </c>
+      <c r="B624" t="s">
+        <v>2092</v>
+      </c>
       <c r="D624" t="s">
         <v>1810</v>
       </c>
@@ -15527,6 +15610,9 @@
       <c r="A625" t="s">
         <v>1811</v>
       </c>
+      <c r="B625" t="s">
+        <v>2092</v>
+      </c>
       <c r="D625" t="s">
         <v>1813</v>
       </c>
@@ -15538,6 +15624,9 @@
       <c r="A626" t="s">
         <v>1814</v>
       </c>
+      <c r="B626" t="s">
+        <v>2093</v>
+      </c>
       <c r="D626" t="s">
         <v>1816</v>
       </c>
@@ -15885,6 +15974,9 @@
       <c r="A651" t="s">
         <v>1887</v>
       </c>
+      <c r="B651" t="s">
+        <v>2094</v>
+      </c>
       <c r="D651" t="s">
         <v>1889</v>
       </c>
@@ -15896,6 +15988,9 @@
       <c r="A652" t="s">
         <v>1890</v>
       </c>
+      <c r="B652" t="s">
+        <v>1988</v>
+      </c>
       <c r="D652" t="s">
         <v>1892</v>
       </c>
@@ -15907,6 +16002,9 @@
       <c r="A653" t="s">
         <v>1893</v>
       </c>
+      <c r="B653" s="1" t="s">
+        <v>2021</v>
+      </c>
       <c r="D653" t="s">
         <v>1895</v>
       </c>
@@ -15918,6 +16016,9 @@
       <c r="A654" t="s">
         <v>1896</v>
       </c>
+      <c r="B654" t="s">
+        <v>2051</v>
+      </c>
       <c r="D654" t="s">
         <v>1898</v>
       </c>
@@ -15929,6 +16030,9 @@
       <c r="A655" t="s">
         <v>1899</v>
       </c>
+      <c r="B655" t="s">
+        <v>2095</v>
+      </c>
       <c r="D655" t="s">
         <v>1901</v>
       </c>
@@ -15940,6 +16044,9 @@
       <c r="A656" t="s">
         <v>1902</v>
       </c>
+      <c r="B656" t="s">
+        <v>2095</v>
+      </c>
       <c r="D656" t="s">
         <v>1904</v>
       </c>
@@ -15951,6 +16058,9 @@
       <c r="A657" t="s">
         <v>1905</v>
       </c>
+      <c r="B657" s="1" t="s">
+        <v>2021</v>
+      </c>
       <c r="D657" t="s">
         <v>1907</v>
       </c>
@@ -15962,6 +16072,9 @@
       <c r="A658" t="s">
         <v>1908</v>
       </c>
+      <c r="B658" s="1" t="s">
+        <v>2021</v>
+      </c>
       <c r="D658" t="s">
         <v>1910</v>
       </c>
@@ -15973,6 +16086,9 @@
       <c r="A659" t="s">
         <v>1911</v>
       </c>
+      <c r="B659" t="s">
+        <v>2035</v>
+      </c>
       <c r="D659" t="s">
         <v>1913</v>
       </c>
@@ -15984,6 +16100,9 @@
       <c r="A660" t="s">
         <v>1914</v>
       </c>
+      <c r="B660" t="s">
+        <v>2035</v>
+      </c>
       <c r="D660" t="s">
         <v>1916</v>
       </c>
@@ -15995,6 +16114,9 @@
       <c r="A661" t="s">
         <v>1917</v>
       </c>
+      <c r="B661" s="1" t="s">
+        <v>2021</v>
+      </c>
       <c r="D661" t="s">
         <v>1919</v>
       </c>
@@ -16006,6 +16128,9 @@
       <c r="A662" t="s">
         <v>1920</v>
       </c>
+      <c r="B662" s="1" t="s">
+        <v>2021</v>
+      </c>
       <c r="D662" t="s">
         <v>1922</v>
       </c>
@@ -16045,6 +16170,9 @@
       <c r="A665" t="s">
         <v>1929</v>
       </c>
+      <c r="B665" s="1" t="s">
+        <v>2021</v>
+      </c>
       <c r="D665" t="s">
         <v>1931</v>
       </c>
@@ -16081,8 +16209,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B458:B667 B3:B456">
-    <cfRule type="containsBlanks" dxfId="35" priority="1">
+  <conditionalFormatting sqref="B3:B456 B458:B667">
+    <cfRule type="containsBlanks" dxfId="22" priority="1">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>
